--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$479</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$484</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
@@ -36,42 +36,45 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$433</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$286</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$266</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$479</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$479</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$479</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$443</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$426</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$426</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$426</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$426</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$279</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$472</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$472</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$472</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$472</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$436</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4435" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="216">
   <si>
     <t>kpi Name</t>
   </si>
@@ -2035,7 +2038,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.5546558704453"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2443,8 +2446,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5736,12 +5739,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -7826,12 +7829,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8387,23 +8390,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F499"/>
+  <dimension ref="A1:F492"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C466" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E488" activeCellId="0" sqref="E488"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B407" activeCellId="0" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8427,7 +8430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>126</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>126</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>126</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>126</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>126</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>126</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>126</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>126</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>126</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>126</v>
       </c>
@@ -8631,7 +8634,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>126</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>126</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>126</v>
       </c>
@@ -8682,7 +8685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>126</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>126</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>126</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>126</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>126</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>126</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>126</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>126</v>
       </c>
@@ -8818,7 +8821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>126</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>126</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>126</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>126</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>126</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>126</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>126</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>126</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>126</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>126</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>126</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>126</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
         <v>126</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>126</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>126</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
         <v>126</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
         <v>126</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>126</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>126</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>126</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>126</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>126</v>
       </c>
@@ -9328,7 +9331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
         <v>126</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>126</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>126</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>126</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
         <v>126</v>
       </c>
@@ -9413,7 +9416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>126</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
         <v>126</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
         <v>126</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
         <v>126</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>138</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
         <v>126</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
         <v>126</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
         <v>126</v>
       </c>
@@ -9566,7 +9569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
         <v>126</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
         <v>126</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
         <v>126</v>
       </c>
@@ -9617,7 +9620,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>138</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>138</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>138</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>138</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>138</v>
       </c>
@@ -9702,7 +9705,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>143</v>
       </c>
@@ -9719,7 +9722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>143</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>143</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>143</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>143</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>143</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
         <v>148</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>148</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
         <v>148</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
         <v>148</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>148</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>148</v>
       </c>
@@ -9906,7 +9909,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>148</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>148</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>148</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>148</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>148</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>148</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
         <v>148</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
         <v>148</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
         <v>148</v>
       </c>
@@ -10059,7 +10062,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>148</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
         <v>148</v>
       </c>
@@ -10093,7 +10096,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
         <v>148</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>148</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>148</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>148</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
         <v>148</v>
       </c>
@@ -10178,7 +10181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
         <v>148</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
         <v>148</v>
       </c>
@@ -10212,7 +10215,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
         <v>148</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
         <v>148</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
         <v>148</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
         <v>148</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
         <v>148</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
         <v>148</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>148</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
         <v>148</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
         <v>148</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
         <v>148</v>
       </c>
@@ -10501,7 +10504,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
         <v>148</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
         <v>148</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
         <v>148</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
         <v>148</v>
       </c>
@@ -10569,7 +10572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
         <v>148</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
         <v>148</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
         <v>148</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
         <v>148</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
         <v>148</v>
       </c>
@@ -10654,7 +10657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
         <v>148</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
         <v>148</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
         <v>148</v>
       </c>
@@ -10705,7 +10708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
         <v>148</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
         <v>148</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
         <v>148</v>
       </c>
@@ -10756,7 +10759,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
         <v>148</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
         <v>148</v>
       </c>
@@ -10790,7 +10793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>138</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>138</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>138</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>138</v>
       </c>
@@ -10858,7 +10861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>138</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>138</v>
       </c>
@@ -10892,7 +10895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>138</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>138</v>
       </c>
@@ -10926,7 +10929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>138</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>138</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>138</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>138</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>138</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>138</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>138</v>
       </c>
@@ -11045,7 +11048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>138</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>138</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>138</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>138</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>138</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>138</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>138</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>138</v>
       </c>
@@ -11181,7 +11184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>138</v>
       </c>
@@ -11198,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>138</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>138</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>138</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>138</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>138</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>138</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>138</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>138</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>138</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>138</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>138</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>138</v>
       </c>
@@ -11521,7 +11524,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>138</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>138</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>138</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>138</v>
       </c>
@@ -11589,7 +11592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>138</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>138</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>138</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>138</v>
       </c>
@@ -11657,7 +11660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>138</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>138</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>138</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>138</v>
       </c>
@@ -11725,7 +11728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>138</v>
       </c>
@@ -11742,7 +11745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>138</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>138</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>143</v>
       </c>
@@ -11793,7 +11796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>143</v>
       </c>
@@ -11810,7 +11813,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>143</v>
       </c>
@@ -11827,7 +11830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>143</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>143</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>143</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>143</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>143</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>143</v>
       </c>
@@ -11929,7 +11932,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>143</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>143</v>
       </c>
@@ -11963,7 +11966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>143</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>143</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>143</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="11" t="s">
         <v>126</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>143</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="11" t="s">
         <v>126</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="11" t="s">
         <v>126</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="11" t="s">
         <v>126</v>
       </c>
@@ -12099,7 +12102,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="11" t="s">
         <v>126</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>143</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="11" t="s">
         <v>126</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="11" t="s">
         <v>126</v>
       </c>
@@ -12167,7 +12170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="11" t="s">
         <v>126</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="11" t="s">
         <v>126</v>
       </c>
@@ -12201,7 +12204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="11" t="s">
         <v>126</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="11" t="s">
         <v>126</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="11" t="s">
         <v>126</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="11" t="s">
         <v>126</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="11" t="s">
         <v>126</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="11" t="s">
         <v>126</v>
       </c>
@@ -12303,7 +12306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="11" t="s">
         <v>126</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="11" t="s">
         <v>148</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="11" t="s">
         <v>148</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="11" t="s">
         <v>148</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="11" t="s">
         <v>148</v>
       </c>
@@ -12388,7 +12391,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="11" t="s">
         <v>148</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>138</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>138</v>
       </c>
@@ -12439,7 +12442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>138</v>
       </c>
@@ -12456,7 +12459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>138</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>138</v>
       </c>
@@ -12490,7 +12493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>143</v>
       </c>
@@ -12507,7 +12510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>143</v>
       </c>
@@ -12524,7 +12527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>143</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>143</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>143</v>
       </c>
@@ -12575,12 +12578,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>30</v>
@@ -12588,16 +12591,16 @@
       <c r="D246" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E246" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>30</v>
@@ -12605,16 +12608,16 @@
       <c r="D247" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E247" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>30</v>
@@ -12622,16 +12625,16 @@
       <c r="D248" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E248" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>30</v>
@@ -12639,16 +12642,16 @@
       <c r="D249" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E249" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>30</v>
@@ -12656,16 +12659,16 @@
       <c r="D250" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E250" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E250" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>30</v>
@@ -12673,16 +12676,16 @@
       <c r="D251" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E251" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E251" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>30</v>
@@ -12690,16 +12693,16 @@
       <c r="D252" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E252" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>30</v>
@@ -12711,12 +12714,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>30</v>
@@ -12728,12 +12731,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>30</v>
@@ -12745,12 +12748,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>30</v>
@@ -12762,12 +12765,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>30</v>
@@ -12779,12 +12782,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>30</v>
@@ -12792,16 +12795,16 @@
       <c r="D258" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E258" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E258" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>30</v>
@@ -12809,16 +12812,16 @@
       <c r="D259" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E259" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E259" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>30</v>
@@ -12826,16 +12829,16 @@
       <c r="D260" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E260" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E260" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B261" s="0" t="s">
-        <v>97</v>
+      <c r="B261" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>30</v>
@@ -12843,16 +12846,16 @@
       <c r="D261" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E261" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E261" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>30</v>
@@ -12860,84 +12863,84 @@
       <c r="D262" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E262" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D263" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="D263" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>100</v>
+        <v>143</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>30</v>
@@ -12945,16 +12948,16 @@
       <c r="D267" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E267" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>102</v>
+      <c r="B268" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>30</v>
@@ -12962,16 +12965,16 @@
       <c r="D268" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E268" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E268" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>30</v>
@@ -12979,169 +12982,169 @@
       <c r="D269" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E269" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E269" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D270" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E270" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>102</v>
+        <v>138</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D271" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D272" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>143</v>
+        <v>30</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D273" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>138</v>
+        <v>29</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E274" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>138</v>
+    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E275" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>138</v>
+    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E276" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>138</v>
+    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E277" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>138</v>
+    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E278" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>30</v>
@@ -13150,154 +13153,154 @@
         <v>140</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="11" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D281" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>77</v>
+        <v>31</v>
+      </c>
+      <c r="D281" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="11" t="s">
-        <v>148</v>
+        <v>31</v>
+      </c>
+      <c r="D282" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E283" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="11" t="s">
-        <v>148</v>
+        <v>31</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E285" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C286" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D286" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C287" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D287" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B288" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C288" s="11" t="s">
-        <v>31</v>
+      <c r="B288" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>144</v>
@@ -13306,15 +13309,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>31</v>
+      <c r="B289" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>144</v>
@@ -13323,12 +13326,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>31</v>
@@ -13336,16 +13339,16 @@
       <c r="D290" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E290" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E290" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>32</v>
@@ -13353,118 +13356,118 @@
       <c r="D291" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E291" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E291" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B292" s="11" t="s">
-        <v>102</v>
+      <c r="B292" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="C292" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D292" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C295" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D292" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C293" s="0" t="s">
+      <c r="D295" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D293" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D294" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D295" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D296" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E296" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E296" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C297" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E297" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E297" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>32</v>
@@ -13472,70 +13475,70 @@
       <c r="D298" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E298" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E298" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="C299" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E299" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E300" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>162</v>
+      <c r="D300" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="D301" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>144</v>
@@ -13544,15 +13547,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>144</v>
@@ -13561,15 +13564,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D304" s="15" t="s">
         <v>144</v>
@@ -13578,12 +13581,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>32</v>
@@ -13592,15 +13595,15 @@
         <v>144</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>32</v>
@@ -13609,66 +13612,66 @@
         <v>144</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D309" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>33</v>
@@ -13677,15 +13680,15 @@
         <v>144</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>33</v>
@@ -13694,18 +13697,18 @@
         <v>144</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>144</v>
@@ -13714,15 +13717,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>144</v>
@@ -13731,15 +13734,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>144</v>
@@ -13748,12 +13751,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>32</v>
@@ -13765,12 +13768,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>32</v>
@@ -13782,15 +13785,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>144</v>
@@ -13799,15 +13802,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>144</v>
@@ -13816,15 +13819,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>144</v>
@@ -13833,12 +13836,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>33</v>
@@ -13850,12 +13853,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>33</v>
@@ -13867,15 +13870,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>144</v>
@@ -13884,15 +13887,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>144</v>
@@ -13901,15 +13904,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>144</v>
@@ -13918,134 +13921,134 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C325" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D325" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D326" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D327" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D328" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D329" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D330" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D325" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C326" s="0" t="s">
+      <c r="D331" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="D326" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D327" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D328" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E328" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D329" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D330" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E330" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D331" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E331" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="D332" s="15" t="s">
         <v>144</v>
@@ -14054,15 +14057,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C333" s="11" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D333" s="15" t="s">
         <v>144</v>
@@ -14071,15 +14074,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C334" s="11" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D334" s="15" t="s">
         <v>144</v>
@@ -14088,15 +14091,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C335" s="11" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D335" s="15" t="s">
         <v>144</v>
@@ -14105,15 +14108,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D336" s="15" t="s">
         <v>144</v>
@@ -14122,15 +14125,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C337" s="11" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D337" s="15" t="s">
         <v>144</v>
@@ -14139,15 +14142,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D338" s="15" t="s">
         <v>144</v>
@@ -14156,15 +14159,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D339" s="15" t="s">
         <v>144</v>
@@ -14173,15 +14176,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D340" s="15" t="s">
         <v>144</v>
@@ -14190,15 +14193,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D341" s="15" t="s">
         <v>144</v>
@@ -14207,15 +14210,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D342" s="15" t="s">
         <v>144</v>
@@ -14224,148 +14227,148 @@
         <v>133</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D343" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C343" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D343" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E343" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C344" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C344" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D344" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E344" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E344" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C345" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C345" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D345" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E345" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E345" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C346" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C346" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D346" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E346" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E346" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C347" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C347" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D347" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E347" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E347" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C348" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C348" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D348" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E348" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E348" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C349" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C349" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D349" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E349" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="350" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B350" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C350" s="20" t="s">
+      <c r="E349" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C350" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D350" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E350" s="20" t="s">
+      <c r="D350" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E350" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>33</v>
@@ -14377,12 +14380,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>33</v>
@@ -14394,12 +14397,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>33</v>
@@ -14411,12 +14414,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>33</v>
@@ -14428,12 +14431,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>33</v>
@@ -14445,12 +14448,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>33</v>
@@ -14458,16 +14461,16 @@
       <c r="D356" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E356" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E356" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>33</v>
@@ -14475,16 +14478,16 @@
       <c r="D357" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E357" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E357" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>33</v>
@@ -14492,16 +14495,16 @@
       <c r="D358" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E358" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E358" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>33</v>
@@ -14509,16 +14512,16 @@
       <c r="D359" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E359" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E359" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>33</v>
@@ -14526,16 +14529,16 @@
       <c r="D360" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E360" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>71</v>
+      <c r="E360" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>33</v>
@@ -14544,18 +14547,18 @@
         <v>144</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D362" s="15" t="s">
         <v>144</v>
@@ -14564,114 +14567,114 @@
         <v>60</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>74</v>
+    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D363" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E363" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>76</v>
+      <c r="E363" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D364" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E364" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>77</v>
+      <c r="E364" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D365" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E365" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>78</v>
+      <c r="E365" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D366" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E366" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>79</v>
+      <c r="E366" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D367" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E367" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="368" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E367" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D368" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>32</v>
@@ -14683,12 +14686,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>32</v>
@@ -14700,12 +14703,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>32</v>
@@ -14717,12 +14720,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>32</v>
@@ -14734,12 +14737,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>32</v>
@@ -14751,12 +14754,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>32</v>
@@ -14768,12 +14771,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>32</v>
@@ -14782,15 +14785,15 @@
         <v>144</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>32</v>
@@ -14799,15 +14802,15 @@
         <v>144</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>32</v>
@@ -14816,15 +14819,15 @@
         <v>144</v>
       </c>
       <c r="E377" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>32</v>
@@ -14833,15 +14836,15 @@
         <v>144</v>
       </c>
       <c r="E378" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>32</v>
@@ -14850,15 +14853,15 @@
         <v>144</v>
       </c>
       <c r="E379" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>32</v>
@@ -14867,18 +14870,18 @@
         <v>144</v>
       </c>
       <c r="E380" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D381" s="15" t="s">
         <v>144</v>
@@ -14887,114 +14890,114 @@
         <v>60</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B382" s="11" t="s">
-        <v>74</v>
+    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D382" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E382" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B383" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D383" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E383" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B384" s="11" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D384" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E384" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B385" s="11" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D385" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E385" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B386" s="11" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D386" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E386" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B387" s="11" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D387" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E387" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B388" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>31</v>
@@ -15006,12 +15009,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>31</v>
@@ -15023,12 +15026,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>31</v>
@@ -15040,12 +15043,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C391" s="11" t="s">
         <v>31</v>
@@ -15057,12 +15060,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>31</v>
@@ -15074,12 +15077,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>31</v>
@@ -15091,12 +15094,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>31</v>
@@ -15104,16 +15107,16 @@
       <c r="D394" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E394" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E394" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C395" s="11" t="s">
         <v>31</v>
@@ -15121,16 +15124,16 @@
       <c r="D395" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E395" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E395" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>31</v>
@@ -15138,16 +15141,16 @@
       <c r="D396" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E396" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E396" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>31</v>
@@ -15155,16 +15158,16 @@
       <c r="D397" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E397" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E397" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>31</v>
@@ -15172,101 +15175,101 @@
       <c r="D398" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E398" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C399" s="11" t="s">
+      <c r="E398" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="399" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C399" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D399" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E399" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D399" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E399" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D400" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E400" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E400" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D401" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D402" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D403" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>31</v>
@@ -15275,49 +15278,49 @@
         <v>144</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C405" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="405" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C405" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D405" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E405" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="406" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B406" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C406" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D406" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E406" s="20" t="s">
-        <v>75</v>
+      <c r="D405" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E405" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="406" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D406" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>134</v>
+      <c r="A407" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>32</v>
@@ -15325,16 +15328,16 @@
       <c r="D407" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E407" s="0" t="s">
-        <v>135</v>
+      <c r="E407" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>136</v>
+      <c r="A408" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>32</v>
@@ -15342,87 +15345,87 @@
       <c r="D408" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E408" s="0" t="s">
-        <v>135</v>
+      <c r="E408" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>134</v>
+      <c r="A409" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D409" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E409" s="0" t="s">
-        <v>135</v>
+      <c r="E409" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B410" s="0" t="s">
-        <v>136</v>
+      <c r="B410" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D410" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E410" s="0" t="s">
-        <v>135</v>
+      <c r="E410" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B411" s="0" t="s">
-        <v>134</v>
+      <c r="B411" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D411" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E411" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="412" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B412" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C412" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D412" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E412" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="413" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="11" t="s">
+      <c r="E411" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D412" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B413" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D413" s="15" t="s">
         <v>144</v>
@@ -15432,14 +15435,14 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="11" t="s">
+      <c r="A414" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B414" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D414" s="15" t="s">
         <v>144</v>
@@ -15449,14 +15452,14 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="11" t="s">
+      <c r="A415" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B415" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D415" s="15" t="s">
         <v>144</v>
@@ -15466,14 +15469,14 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="11" t="s">
+      <c r="A416" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B416" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D416" s="15" t="s">
         <v>144</v>
@@ -15490,7 +15493,7 @@
         <v>119</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D417" s="15" t="s">
         <v>144</v>
@@ -15507,7 +15510,7 @@
         <v>120</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D418" s="15" t="s">
         <v>144</v>
@@ -15524,7 +15527,7 @@
         <v>121</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D419" s="15" t="s">
         <v>144</v>
@@ -15541,7 +15544,7 @@
         <v>115</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D420" s="15" t="s">
         <v>144</v>
@@ -15558,7 +15561,7 @@
         <v>116</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D421" s="15" t="s">
         <v>144</v>
@@ -15575,7 +15578,7 @@
         <v>117</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D422" s="15" t="s">
         <v>144</v>
@@ -15592,7 +15595,7 @@
         <v>118</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D423" s="15" t="s">
         <v>144</v>
@@ -15609,7 +15612,7 @@
         <v>119</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D424" s="15" t="s">
         <v>144</v>
@@ -15626,7 +15629,7 @@
         <v>120</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D425" s="15" t="s">
         <v>144</v>
@@ -15635,15 +15638,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+    <row r="426" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B426" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D426" s="15" t="s">
         <v>144</v>
@@ -15652,46 +15655,46 @@
         <v>132</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B427" s="11" t="s">
-        <v>115</v>
+    <row r="427" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D427" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E427" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B428" s="11" t="s">
-        <v>116</v>
+      <c r="E427" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D428" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E428" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B429" s="11" t="s">
-        <v>117</v>
+      <c r="E428" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>31</v>
@@ -15699,254 +15702,254 @@
       <c r="D429" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E429" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E429" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B430" s="11" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="C430" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D431" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D432" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D433" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D434" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D435" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C436" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D436" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C437" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D430" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E430" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B431" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C431" s="11" t="s">
+      <c r="D437" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C438" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D431" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E431" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B432" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C432" s="11" t="s">
+      <c r="D438" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C439" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D432" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E432" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="433" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B433" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C433" s="11" t="s">
+      <c r="D439" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C440" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D433" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E433" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C434" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D434" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C435" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D435" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C436" s="11" t="s">
+      <c r="D440" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C441" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D436" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C437" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E437" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C438" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D438" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E438" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C439" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D439" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C440" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D440" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E440" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C441" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D441" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>33</v>
+        <v>94</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D442" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E442" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="11" t="s">
+      <c r="E442" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D443" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E443" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E443" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C444" s="11" t="s">
         <v>31</v>
@@ -15958,12 +15961,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>31</v>
@@ -15975,12 +15978,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>31</v>
@@ -15992,12 +15995,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C447" s="11" t="s">
         <v>31</v>
@@ -16009,12 +16012,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>31</v>
@@ -16026,15 +16029,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C449" s="11" t="s">
-        <v>31</v>
+        <v>89</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D449" s="15" t="s">
         <v>144</v>
@@ -16043,15 +16046,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C450" s="11" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D450" s="15" t="s">
         <v>144</v>
@@ -16060,15 +16063,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C451" s="11" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D451" s="15" t="s">
         <v>144</v>
@@ -16077,15 +16080,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C452" s="11" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D452" s="15" t="s">
         <v>144</v>
@@ -16094,15 +16097,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C453" s="11" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D453" s="15" t="s">
         <v>144</v>
@@ -16111,15 +16114,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C454" s="11" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D454" s="15" t="s">
         <v>144</v>
@@ -16128,15 +16131,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C455" s="11" t="s">
-        <v>31</v>
+        <v>95</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D455" s="15" t="s">
         <v>144</v>
@@ -16145,12 +16148,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C456" s="0" t="s">
         <v>32</v>
@@ -16162,12 +16165,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>32</v>
@@ -16179,12 +16182,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>32</v>
@@ -16196,12 +16199,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>32</v>
@@ -16213,12 +16216,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C460" s="0" t="s">
         <v>32</v>
@@ -16230,15 +16233,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D461" s="15" t="s">
         <v>144</v>
@@ -16247,15 +16250,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D462" s="15" t="s">
         <v>144</v>
@@ -16264,15 +16267,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D463" s="15" t="s">
         <v>144</v>
@@ -16281,15 +16284,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D464" s="15" t="s">
         <v>144</v>
@@ -16298,15 +16301,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D465" s="15" t="s">
         <v>144</v>
@@ -16315,15 +16318,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D466" s="15" t="s">
         <v>144</v>
@@ -16332,15 +16335,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D467" s="15" t="s">
         <v>144</v>
@@ -16349,12 +16352,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>33</v>
@@ -16366,12 +16369,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>33</v>
@@ -16383,12 +16386,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C470" s="0" t="s">
         <v>33</v>
@@ -16400,12 +16403,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C471" s="0" t="s">
         <v>33</v>
@@ -16417,12 +16420,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C472" s="0" t="s">
         <v>33</v>
@@ -16434,335 +16437,222 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>143</v>
+    <row r="473" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C473" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D473" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E473" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>143</v>
+        <v>49</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D473" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E473" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D474" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E474" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>143</v>
+        <v>51</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D474" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E474" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C475" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D475" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E475" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>143</v>
+        <v>49</v>
+      </c>
+      <c r="C475" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D475" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E475" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D476" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E476" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D476" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E476" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C477" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D477" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E477" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D477" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E477" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C478" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D478" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E478" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="C478" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D478" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E478" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="C479" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D479" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E479" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="11" t="s">
-        <v>126</v>
+      <c r="E479" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D480" s="11" t="s">
-        <v>127</v>
+        <v>31</v>
+      </c>
+      <c r="D480" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E480" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="11" t="s">
-        <v>126</v>
+    <row r="481" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C481" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D481" s="11" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D481" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E481" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="11" t="s">
-        <v>148</v>
+    <row r="482" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C482" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D482" s="11" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D482" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E482" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="11" t="s">
-        <v>148</v>
+    <row r="483" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C483" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D483" s="11" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D483" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E483" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C484" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D484" s="11" t="s">
-        <v>140</v>
+        <v>51</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D484" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E484" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C485" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E485" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C486" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D486" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E486" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C487" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D487" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E487" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C488" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D488" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E488" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C489" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D489" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E489" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C490" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D490" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E490" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C491" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D491" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E491" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F479"/>
+  <autoFilter ref="A1:F484">
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="equal" val="adj to"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$445</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
@@ -42,6 +42,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -52,44 +54,48 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$369</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$369</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$369</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$369</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$427</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$427</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$427</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$427</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$379</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$358</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$434</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="217">
   <si>
     <t>kpi Name</t>
   </si>
@@ -541,22 +547,22 @@
     <t>LL - Fabricare, RL - Fabricare</t>
   </si>
   <si>
+    <t>AI KPIs</t>
+  </si>
+  <si>
+    <t>FABRICARE</t>
+  </si>
+  <si>
+    <t>Orchestration:Fem Care Bookend:FEM CARE</t>
+  </si>
+  <si>
+    <t>bookend</t>
+  </si>
+  <si>
     <t>Orchestration:Tide_SUD_Orches:FABRICARE</t>
   </si>
   <si>
-    <t>FABRICARE</t>
-  </si>
-  <si>
     <t>relative</t>
-  </si>
-  <si>
-    <t>AI KPIs</t>
-  </si>
-  <si>
-    <t>Orchestration:Fem Care Bookend:FEM CARE</t>
-  </si>
-  <si>
-    <t>bookend</t>
   </si>
   <si>
     <t>Orchestration:Always_Orchest_1:FEM CARE</t>
@@ -1551,7 +1557,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.2995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -1784,12 +1790,12 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.0890688259109"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1848,7 +1854,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>26</v>
@@ -2058,8 +2064,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2533,8 +2539,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3714,7 +3720,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.7570850202429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.5141700404858"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5827,8 +5833,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -7917,12 +7923,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8478,23 +8484,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F452"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C428" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F455" activeCellId="0" sqref="F455"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.5141700404858"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8518,7 +8524,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
@@ -8535,7 +8541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>127</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>127</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>127</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>127</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>127</v>
       </c>
@@ -8637,7 +8643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>127</v>
       </c>
@@ -8671,7 +8677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>127</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>127</v>
       </c>
@@ -8739,7 +8745,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>127</v>
       </c>
@@ -8756,7 +8762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>127</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>127</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>127</v>
       </c>
@@ -8824,7 +8830,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>127</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>127</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>127</v>
       </c>
@@ -8875,7 +8881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>127</v>
       </c>
@@ -8892,7 +8898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>127</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>127</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>127</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>127</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>127</v>
       </c>
@@ -8977,7 +8983,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>127</v>
       </c>
@@ -8994,7 +9000,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>127</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>127</v>
       </c>
@@ -9028,7 +9034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>127</v>
       </c>
@@ -9045,7 +9051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>127</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>127</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>127</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>127</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
         <v>127</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>127</v>
       </c>
@@ -9283,7 +9289,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>139</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
         <v>127</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>127</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>127</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>127</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>127</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>139</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>139</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>139</v>
       </c>
@@ -9453,7 +9459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>139</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>139</v>
       </c>
@@ -9487,7 +9493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>144</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>144</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>144</v>
       </c>
@@ -9538,7 +9544,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>144</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>144</v>
       </c>
@@ -9572,29 +9578,29 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>144</v>
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="B65" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>29</v>
@@ -9606,12 +9612,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>29</v>
@@ -9623,12 +9629,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>29</v>
@@ -9640,12 +9646,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>29</v>
@@ -9659,10 +9665,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>29</v>
@@ -9670,16 +9676,16 @@
       <c r="D69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>130</v>
+      <c r="E69" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>29</v>
@@ -9691,12 +9697,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>29</v>
@@ -9704,16 +9710,16 @@
       <c r="D71" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>29</v>
@@ -9725,12 +9731,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>29</v>
@@ -9742,12 +9748,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>29</v>
@@ -9759,12 +9765,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>29</v>
@@ -9776,12 +9782,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>29</v>
@@ -9793,12 +9799,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>29</v>
@@ -9810,12 +9816,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>29</v>
@@ -9824,15 +9830,15 @@
         <v>128</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>29</v>
@@ -9844,12 +9850,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>29</v>
@@ -9861,12 +9867,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>29</v>
@@ -9878,12 +9884,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>29</v>
@@ -9895,12 +9901,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>29</v>
@@ -9912,12 +9918,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>29</v>
@@ -9929,12 +9935,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>29</v>
@@ -9942,16 +9948,16 @@
       <c r="D85" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>29</v>
@@ -9963,12 +9969,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>29</v>
@@ -9980,12 +9986,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>29</v>
@@ -9997,12 +10003,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>29</v>
@@ -10014,12 +10020,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>29</v>
@@ -10031,12 +10037,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>29</v>
@@ -10044,16 +10050,16 @@
       <c r="D91" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>29</v>
@@ -10067,10 +10073,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>29</v>
@@ -10078,16 +10084,16 @@
       <c r="D93" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>136</v>
+      <c r="E93" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>29</v>
@@ -10101,10 +10107,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>29</v>
@@ -10118,10 +10124,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>29</v>
@@ -10135,10 +10141,10 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>29</v>
@@ -10152,10 +10158,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>29</v>
@@ -10169,10 +10175,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>29</v>
@@ -10186,10 +10192,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>29</v>
@@ -10201,12 +10207,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>29</v>
@@ -10215,15 +10221,15 @@
         <v>128</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>29</v>
@@ -10235,12 +10241,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>29</v>
@@ -10252,29 +10258,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11" t="s">
-        <v>149</v>
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>30</v>
@@ -10286,12 +10292,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>30</v>
@@ -10303,12 +10309,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>30</v>
@@ -10320,12 +10326,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>30</v>
@@ -10337,12 +10343,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>30</v>
@@ -10350,16 +10356,16 @@
       <c r="D109" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>30</v>
@@ -10367,16 +10373,16 @@
       <c r="D110" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>30</v>
@@ -10384,16 +10390,16 @@
       <c r="D111" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>30</v>
@@ -10405,12 +10411,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>30</v>
@@ -10422,12 +10428,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>30</v>
@@ -10439,12 +10445,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>30</v>
@@ -10456,12 +10462,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>30</v>
@@ -10470,15 +10476,15 @@
         <v>141</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>30</v>
@@ -10487,15 +10493,15 @@
         <v>141</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>30</v>
@@ -10504,15 +10510,15 @@
         <v>141</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>30</v>
@@ -10524,12 +10530,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>30</v>
@@ -10541,12 +10547,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>30</v>
@@ -10558,12 +10564,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>30</v>
@@ -10575,12 +10581,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>30</v>
@@ -10588,16 +10594,16 @@
       <c r="D123" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>30</v>
@@ -10605,16 +10611,16 @@
       <c r="D124" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E124" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>30</v>
@@ -10622,16 +10628,16 @@
       <c r="D125" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>30</v>
@@ -10643,12 +10649,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>30</v>
@@ -10660,12 +10666,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>30</v>
@@ -10677,12 +10683,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>30</v>
@@ -10690,16 +10696,16 @@
       <c r="D129" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>30</v>
@@ -10707,16 +10713,16 @@
       <c r="D130" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>30</v>
@@ -10725,15 +10731,15 @@
         <v>141</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>135</v>
+      <c r="B132" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>30</v>
@@ -10741,16 +10747,16 @@
       <c r="D132" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E132" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>30</v>
@@ -10758,356 +10764,356 @@
       <c r="D133" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E133" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E142" s="0" t="s">
+      <c r="C145" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="11" t="s">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C143" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" s="0" t="s">
+      <c r="C146" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B144" s="0" t="s">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E144" s="0" t="s">
+      <c r="C147" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>144</v>
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E149" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>108</v>
+      <c r="E149" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>111</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>113</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>147</v>
@@ -11116,83 +11122,83 @@
         <v>145</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>21</v>
@@ -11201,32 +11207,32 @@
         <v>128</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B161" s="18" t="s">
-        <v>152</v>
+      <c r="B161" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>21</v>
@@ -11234,16 +11240,16 @@
       <c r="D161" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B162" s="19" t="s">
-        <v>154</v>
+      <c r="B162" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>21</v>
@@ -11251,16 +11257,16 @@
       <c r="D162" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>155</v>
+      <c r="B163" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>21</v>
@@ -11268,16 +11274,16 @@
       <c r="D163" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E163" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>156</v>
+      <c r="B164" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>21</v>
@@ -11285,297 +11291,297 @@
       <c r="D164" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E164" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>144</v>
+      <c r="E164" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E166" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E168" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E169" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E170" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="11" t="s">
-        <v>127</v>
+      <c r="E170" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="11" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="11" t="s">
-        <v>127</v>
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11" t="s">
-        <v>127</v>
+    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="11" t="s">
-        <v>127</v>
+    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="11" t="s">
-        <v>127</v>
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="11" t="s">
-        <v>149</v>
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11" t="s">
-        <v>149</v>
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="11" t="s">
-        <v>149</v>
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11" t="s">
-        <v>149</v>
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="11" t="s">
-        <v>149</v>
+      <c r="A181" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11583,7 +11589,7 @@
         <v>139</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>30</v>
@@ -11591,8 +11597,8 @@
       <c r="D182" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E182" s="16" t="s">
-        <v>130</v>
+      <c r="E182" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11600,7 +11606,7 @@
         <v>139</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>30</v>
@@ -11608,8 +11614,8 @@
       <c r="D183" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E183" s="16" t="s">
-        <v>130</v>
+      <c r="E183" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11617,7 +11623,7 @@
         <v>139</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>30</v>
@@ -11625,8 +11631,8 @@
       <c r="D184" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E184" s="16" t="s">
-        <v>130</v>
+      <c r="E184" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11634,7 +11640,7 @@
         <v>139</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>30</v>
@@ -11642,8 +11648,8 @@
       <c r="D185" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E185" s="16" t="s">
-        <v>130</v>
+      <c r="E185" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11651,7 +11657,7 @@
         <v>139</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>30</v>
@@ -11659,93 +11665,93 @@
       <c r="D186" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E186" s="16" t="s">
-        <v>130</v>
+      <c r="E186" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11753,7 +11759,7 @@
         <v>139</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>30</v>
@@ -11765,12 +11771,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>30</v>
@@ -11778,16 +11784,16 @@
       <c r="D193" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E193" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>30</v>
@@ -11795,84 +11801,84 @@
       <c r="D194" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E194" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>95</v>
+        <v>144</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>30</v>
@@ -11881,15 +11887,15 @@
         <v>141</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>30</v>
@@ -11898,15 +11904,15 @@
         <v>141</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>30</v>
@@ -11915,15 +11921,15 @@
         <v>141</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>30</v>
@@ -11932,15 +11938,15 @@
         <v>141</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>30</v>
@@ -11949,15 +11955,15 @@
         <v>141</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>30</v>
@@ -11965,118 +11971,118 @@
       <c r="D204" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E204" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>139</v>
+      <c r="E204" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D206" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>144</v>
+        <v>29</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>144</v>
+        <v>29</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>139</v>
+        <v>29</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>30</v>
@@ -12085,15 +12091,15 @@
         <v>141</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>30</v>
@@ -12102,253 +12108,253 @@
         <v>141</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>81</v>
+        <v>144</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="11" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C216" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D226" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E216" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D225" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D226" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>32</v>
@@ -12356,16 +12362,16 @@
       <c r="D227" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E227" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>104</v>
+      <c r="B228" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>32</v>
@@ -12373,16 +12379,16 @@
       <c r="D228" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E228" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>32</v>
@@ -12390,50 +12396,50 @@
       <c r="D229" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E229" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E230" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E230" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>104</v>
+      <c r="B231" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E231" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>33</v>
@@ -12441,50 +12447,50 @@
       <c r="D232" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E232" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E233" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E234" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E234" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>33</v>
@@ -12492,50 +12498,50 @@
       <c r="D235" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E235" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B236" s="19" t="s">
-        <v>162</v>
+      <c r="E235" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>32</v>
@@ -12544,15 +12550,15 @@
         <v>145</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>32</v>
@@ -12561,15 +12567,15 @@
         <v>145</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>32</v>
@@ -12578,15 +12584,15 @@
         <v>145</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>32</v>
@@ -12595,32 +12601,32 @@
         <v>145</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>33</v>
@@ -12629,15 +12635,15 @@
         <v>145</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>33</v>
@@ -12646,15 +12652,15 @@
         <v>145</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>33</v>
@@ -12663,15 +12669,15 @@
         <v>145</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>33</v>
@@ -12680,32 +12686,32 @@
         <v>145</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D247" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>32</v>
@@ -12717,12 +12723,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>32</v>
@@ -12734,12 +12740,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>32</v>
@@ -12751,12 +12757,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>32</v>
@@ -12768,15 +12774,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>145</v>
@@ -12785,12 +12791,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>33</v>
@@ -12802,12 +12808,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>33</v>
@@ -12819,12 +12825,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>33</v>
@@ -12836,12 +12842,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C256" s="0" t="s">
         <v>33</v>
@@ -12853,202 +12859,202 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>33</v>
+        <v>108</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E257" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E257" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C258" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D260" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C263" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C259" s="0" t="s">
+      <c r="D263" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C264" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D259" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C260" s="0" t="s">
+      <c r="D264" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D260" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C261" s="0" t="s">
+      <c r="D265" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D261" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C262" s="0" t="s">
+      <c r="D266" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D267" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E267" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>145</v>
@@ -13057,15 +13063,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>145</v>
@@ -13074,15 +13080,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>145</v>
@@ -13091,15 +13097,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>145</v>
@@ -13108,15 +13114,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>145</v>
@@ -13125,15 +13131,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C273" s="11" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>145</v>
@@ -13142,15 +13148,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>145</v>
@@ -13159,216 +13165,216 @@
         <v>134</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D275" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="20" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B275" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C275" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E276" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E276" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E277" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E277" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E278" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E278" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D279" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E279" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E279" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C280" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C280" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E280" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E280" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C281" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C281" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E281" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E281" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C282" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C282" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E282" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E282" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C283" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E283" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E283" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C284" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C284" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E284" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E284" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C285" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C285" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E285" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="286" s="20" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B286" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C286" s="20" t="s">
+      <c r="E285" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C286" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E286" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>33</v>
@@ -13380,12 +13386,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>33</v>
@@ -13393,16 +13399,16 @@
       <c r="D288" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E288" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E288" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>33</v>
@@ -13410,16 +13416,16 @@
       <c r="D289" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E289" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E289" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>33</v>
@@ -13427,16 +13433,16 @@
       <c r="D290" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E290" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E290" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>33</v>
@@ -13444,16 +13450,16 @@
       <c r="D291" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E291" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E291" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>33</v>
@@ -13461,16 +13467,16 @@
       <c r="D292" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E292" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>69</v>
+      <c r="E292" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="293" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>33</v>
@@ -13479,18 +13485,18 @@
         <v>145</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>145</v>
@@ -13499,15 +13505,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>71</v>
+    <row r="295" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>145</v>
@@ -13516,15 +13522,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>72</v>
+    <row r="296" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>145</v>
@@ -13533,15 +13539,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>73</v>
+    <row r="297" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>145</v>
@@ -13550,15 +13556,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>74</v>
+    <row r="298" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>145</v>
@@ -13567,114 +13573,114 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>76</v>
+    <row r="299" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E299" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>78</v>
+      <c r="E299" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E300" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>79</v>
+      <c r="E300" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E301" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>80</v>
+      <c r="E301" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E302" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>81</v>
+      <c r="E302" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E303" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="304" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E303" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D304" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>32</v>
@@ -13686,12 +13692,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>32</v>
@@ -13703,12 +13709,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>32</v>
@@ -13717,15 +13723,15 @@
         <v>145</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>32</v>
@@ -13734,15 +13740,15 @@
         <v>145</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>32</v>
@@ -13751,15 +13757,15 @@
         <v>145</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>32</v>
@@ -13768,15 +13774,15 @@
         <v>145</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>32</v>
@@ -13785,15 +13791,15 @@
         <v>145</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>32</v>
@@ -13802,18 +13808,18 @@
         <v>145</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>145</v>
@@ -13822,15 +13828,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>71</v>
+    <row r="314" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>145</v>
@@ -13839,15 +13845,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B315" s="11" t="s">
-        <v>72</v>
+    <row r="315" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D315" s="15" t="s">
         <v>145</v>
@@ -13856,15 +13862,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>73</v>
+    <row r="316" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>145</v>
@@ -13873,15 +13879,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>74</v>
+    <row r="317" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>145</v>
@@ -13890,114 +13896,114 @@
         <v>132</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>76</v>
+    <row r="318" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>78</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>80</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B322" s="11" t="s">
-        <v>81</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>82</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>61</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>31</v>
@@ -14009,12 +14015,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>31</v>
@@ -14026,12 +14032,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>31</v>
@@ -14039,16 +14045,16 @@
       <c r="D326" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E326" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E326" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>31</v>
@@ -14056,16 +14062,16 @@
       <c r="D327" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E327" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E327" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>31</v>
@@ -14073,16 +14079,16 @@
       <c r="D328" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E328" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E328" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>31</v>
@@ -14090,16 +14096,16 @@
       <c r="D329" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E329" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E329" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>31</v>
@@ -14107,101 +14113,101 @@
       <c r="D330" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E330" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C331" s="11" t="s">
+      <c r="E330" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="331" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C331" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D331" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E331" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D331" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E331" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D332" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E332" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E332" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D333" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E333" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E333" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D334" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E334" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E334" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D335" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E335" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E335" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>31</v>
@@ -14209,118 +14215,118 @@
       <c r="D336" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E336" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C337" s="11" t="s">
+      <c r="E336" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="337" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C337" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D337" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>78</v>
+      <c r="D337" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E337" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="338" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D338" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E338" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>79</v>
+      <c r="E338" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D339" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E339" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>80</v>
+      <c r="E339" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D340" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E340" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>81</v>
+      <c r="E340" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D341" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E341" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="342" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B342" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D342" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E342" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E341" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D342" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B343" s="0" t="s">
-        <v>135</v>
+      <c r="B343" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>32</v>
@@ -14328,16 +14334,16 @@
       <c r="D343" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E343" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E343" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B344" s="0" t="s">
-        <v>137</v>
+      <c r="B344" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>32</v>
@@ -14345,16 +14351,16 @@
       <c r="D344" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E344" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E344" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B345" s="0" t="s">
-        <v>135</v>
+      <c r="B345" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>33</v>
@@ -14362,16 +14368,16 @@
       <c r="D345" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E345" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E345" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B346" s="0" t="s">
-        <v>137</v>
+      <c r="B346" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>33</v>
@@ -14379,53 +14385,53 @@
       <c r="D346" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E346" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E346" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B347" s="0" t="s">
-        <v>135</v>
+      <c r="B347" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D347" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E347" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="348" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D348" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E348" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="349" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="11" t="s">
+      <c r="E347" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D349" s="15" t="s">
         <v>145</v>
@@ -14434,15 +14440,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="11" t="s">
+    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D350" s="15" t="s">
         <v>145</v>
@@ -14451,15 +14457,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="11" t="s">
+    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D351" s="15" t="s">
         <v>145</v>
@@ -14468,15 +14474,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="11" t="s">
+    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D352" s="15" t="s">
         <v>145</v>
@@ -14485,15 +14491,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D353" s="15" t="s">
         <v>145</v>
@@ -14502,15 +14508,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D354" s="15" t="s">
         <v>145</v>
@@ -14519,15 +14525,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D355" s="15" t="s">
         <v>145</v>
@@ -14536,15 +14542,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D356" s="15" t="s">
         <v>145</v>
@@ -14553,15 +14559,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D357" s="15" t="s">
         <v>145</v>
@@ -14570,15 +14576,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+    <row r="358" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D358" s="15" t="s">
         <v>145</v>
@@ -14587,29 +14593,29 @@
         <v>133</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B359" s="11" t="s">
-        <v>119</v>
+    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D359" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E359" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B360" s="11" t="s">
-        <v>120</v>
+      <c r="E359" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>33</v>
@@ -14617,152 +14623,152 @@
       <c r="D360" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E360" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B361" s="11" t="s">
-        <v>121</v>
+      <c r="E360" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="C361" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D361" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D361" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E361" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B362" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C362" s="11" t="s">
+      <c r="D366" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C367" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D362" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E362" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B363" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D363" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E363" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B364" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D364" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E364" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B365" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C365" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D365" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E365" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B366" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C366" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D366" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E366" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B367" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C367" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="D367" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B368" s="11" t="s">
-        <v>121</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D368" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="369" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B369" s="11" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>31</v>
@@ -14770,50 +14776,50 @@
       <c r="D369" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E369" s="11" t="s">
-        <v>133</v>
+      <c r="E369" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="11" t="s">
+      <c r="A370" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D370" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="11" t="s">
+      <c r="A371" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D371" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="11" t="s">
+      <c r="A372" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>31</v>
@@ -14822,126 +14828,126 @@
         <v>145</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D373" s="11" t="s">
-        <v>141</v>
+        <v>31</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="11" t="s">
-        <v>149</v>
+      <c r="A374" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D374" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D374" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="11" t="s">
-        <v>127</v>
+      <c r="A375" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D375" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D375" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="11" t="s">
+      <c r="A376" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>147</v>
+        <v>98</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="11" t="s">
+      <c r="A377" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C377" s="0" t="s">
-        <v>33</v>
+        <v>99</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D377" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="11" t="s">
+      <c r="A378" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D378" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E378" s="11" t="s">
-        <v>166</v>
+      <c r="E378" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="11" t="s">
+      <c r="A379" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D379" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E379" s="11" t="s">
-        <v>168</v>
+      <c r="E379" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14949,7 +14955,7 @@
         <v>144</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>31</v>
@@ -14966,10 +14972,10 @@
         <v>144</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C381" s="11" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D381" s="15" t="s">
         <v>145</v>
@@ -14983,10 +14989,10 @@
         <v>144</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C382" s="11" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D382" s="15" t="s">
         <v>145</v>
@@ -15000,10 +15006,10 @@
         <v>144</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D383" s="15" t="s">
         <v>145</v>
@@ -15017,10 +15023,10 @@
         <v>144</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C384" s="11" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D384" s="15" t="s">
         <v>145</v>
@@ -15034,10 +15040,10 @@
         <v>144</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C385" s="11" t="s">
-        <v>31</v>
+        <v>95</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D385" s="15" t="s">
         <v>145</v>
@@ -15051,10 +15057,10 @@
         <v>144</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>31</v>
+        <v>96</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D386" s="15" t="s">
         <v>145</v>
@@ -15068,10 +15074,10 @@
         <v>144</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C387" s="11" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D387" s="15" t="s">
         <v>145</v>
@@ -15085,10 +15091,10 @@
         <v>144</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C388" s="11" t="s">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D388" s="15" t="s">
         <v>145</v>
@@ -15102,10 +15108,10 @@
         <v>144</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>31</v>
+        <v>99</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D389" s="15" t="s">
         <v>145</v>
@@ -15119,10 +15125,10 @@
         <v>144</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C390" s="11" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D390" s="15" t="s">
         <v>145</v>
@@ -15136,10 +15142,10 @@
         <v>144</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C391" s="11" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D391" s="15" t="s">
         <v>145</v>
@@ -15153,7 +15159,7 @@
         <v>144</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>32</v>
@@ -15170,10 +15176,10 @@
         <v>144</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D393" s="15" t="s">
         <v>145</v>
@@ -15187,10 +15193,10 @@
         <v>144</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D394" s="15" t="s">
         <v>145</v>
@@ -15204,10 +15210,10 @@
         <v>144</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D395" s="15" t="s">
         <v>145</v>
@@ -15221,10 +15227,10 @@
         <v>144</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D396" s="15" t="s">
         <v>145</v>
@@ -15238,10 +15244,10 @@
         <v>144</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D397" s="15" t="s">
         <v>145</v>
@@ -15255,10 +15261,10 @@
         <v>144</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D398" s="15" t="s">
         <v>145</v>
@@ -15272,10 +15278,10 @@
         <v>144</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D399" s="15" t="s">
         <v>145</v>
@@ -15289,10 +15295,10 @@
         <v>144</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D400" s="15" t="s">
         <v>145</v>
@@ -15306,10 +15312,10 @@
         <v>144</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D401" s="15" t="s">
         <v>145</v>
@@ -15323,10 +15329,10 @@
         <v>144</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D402" s="15" t="s">
         <v>145</v>
@@ -15340,10 +15346,10 @@
         <v>144</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D403" s="15" t="s">
         <v>145</v>
@@ -15357,7 +15363,7 @@
         <v>144</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>33</v>
@@ -15369,182 +15375,182 @@
         <v>131</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>144</v>
+    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C405" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D405" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E405" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
-        <v>144</v>
+        <v>51</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E405" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C406" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D406" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E406" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>144</v>
+        <v>53</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E406" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C407" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D407" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E407" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>144</v>
+        <v>51</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E407" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D408" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D408" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E408" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C409" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D409" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E409" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D409" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E409" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D410" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E410" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E410" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C411" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D411" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E411" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E411" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C412" s="0" t="s">
-        <v>33</v>
+        <v>53</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D412" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E412" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E412" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D413" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E413" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E413" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D414" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E414" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E414" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>33</v>
@@ -15552,33 +15558,33 @@
       <c r="D415" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E415" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="11" t="s">
-        <v>127</v>
+      <c r="E415" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C416" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D416" s="11" t="s">
-        <v>128</v>
+        <v>53</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D416" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E416" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C417" s="11" t="s">
         <v>21</v>
@@ -15586,189 +15592,189 @@
       <c r="D417" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E417" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E417" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="11" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D418" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E418" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E418" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="11" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E419" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>139</v>
+      <c r="E419" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E420" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E421" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D422" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="D422" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E422" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D423" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>144</v>
+        <v>29</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C424" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D424" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>144</v>
+        <v>69</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D424" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C425" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D425" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>144</v>
+        <v>70</v>
+      </c>
+      <c r="C425" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D425" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C426" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D426" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E426" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>144</v>
+        <v>71</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D426" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C427" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D427" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="C427" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D427" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>128</v>
@@ -15777,114 +15783,114 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="11" t="s">
-        <v>127</v>
+    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E429" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="11" t="s">
-        <v>127</v>
+    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E430" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="11" t="s">
-        <v>127</v>
+    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E431" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="11" t="s">
-        <v>127</v>
+    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E432" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="11" t="s">
-        <v>127</v>
+    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E433" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="11" t="s">
-        <v>149</v>
+    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E434" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C435" s="11" t="s">
         <v>29</v>
@@ -15892,285 +15898,104 @@
       <c r="D435" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E435" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="11" t="s">
-        <v>149</v>
+      <c r="E435" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E436" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E436" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="11" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E437" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="11" t="s">
-        <v>149</v>
+      <c r="E437" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D438" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E438" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="11" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="D438" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E438" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C439" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D439" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E439" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D439" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E439" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C440" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D440" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E440" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E441" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E442" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C443" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E443" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C444" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E444" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C445" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D445" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E445" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B446" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C446" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D446" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E446" s="16" t="s">
+      <c r="C440" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D440" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E440" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C447" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D447" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E447" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C448" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D448" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E448" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C449" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D449" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E449" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C450" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D450" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E450" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C451" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D451" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E451" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F445"/>
+  <autoFilter ref="A1:F440">
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="equal" val="anchor"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -56,6 +59,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
@@ -85,17 +91,20 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$434</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -107,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="224">
   <si>
     <t>kpi Name</t>
   </si>
@@ -604,7 +613,7 @@
     <t>Adjacency:Naturals Adjacency:FABRICARE:NATURALS=GREEN:BENEFIT=FREE/SENSITIVE</t>
   </si>
   <si>
-    <t>Orchestration:SUD_Horiz_Orches:FABRIC_CARE:SEG=LAUNDRY CARE:FORM=LAUNDRY UNIT DOSE</t>
+    <t>Orchestration:SUD_Horiz_Orches:FABRICARE:SEG=LAUNDRY CARE:FORM=LAUNDRY UNIT DOSE</t>
   </si>
   <si>
     <t>sud_orchestration</t>
@@ -649,15 +658,39 @@
     <t>custom orchestration</t>
   </si>
   <si>
+    <t>attribute_1</t>
+  </si>
+  <si>
+    <t>filter attribute 1</t>
+  </si>
+  <si>
+    <t>attribute_2</t>
+  </si>
+  <si>
+    <t>filter attribute 2</t>
+  </si>
+  <si>
     <t>ECONOMY, PREMIUM, SUPER PREMIUM</t>
   </si>
   <si>
     <t>top, bottom</t>
   </si>
   <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>PADS</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
+    <t>TAMPAX</t>
+  </si>
+  <si>
+    <t>TAMPONS</t>
+  </si>
+  <si>
     <t>1 - REGULAR, 2 - LONG SUPER, 3 - EXTRA LONG SUPER, 4 - OVERNIGHT, 5 - EXTRA HEAVY OVERNIGHT</t>
   </si>
   <si>
@@ -673,12 +706,6 @@
     <t>ABSORBENCY</t>
   </si>
   <si>
-    <t>ALWAYS</t>
-  </si>
-  <si>
-    <t>TAMPAX</t>
-  </si>
-  <si>
     <t>Group 1 param</t>
   </si>
   <si>
@@ -725,6 +752,9 @@
   </si>
   <si>
     <t>bottom</t>
+  </si>
+  <si>
+    <t>custom</t>
   </si>
   <si>
     <t>LAUNDRY UNIT DOSE</t>
@@ -1549,19 +1579,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.975708502024"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1583,8 +1613,20 @@
       <c r="G1" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
         <v>152</v>
       </c>
@@ -1592,19 +1634,31 @@
         <v>21</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>154</v>
       </c>
@@ -1612,22 +1666,34 @@
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
         <v>155</v>
       </c>
@@ -1635,19 +1701,31 @@
         <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>156</v>
       </c>
@@ -1655,19 +1733,31 @@
         <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,13 +1768,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,13 +1785,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1852,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>22</v>
@@ -1787,15 +1877,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1804,52 +1894,55 @@
         <v>16</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,37 +1953,37 @@
         <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -1907,20 +2000,23 @@
         <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D3" s="28"/>
       <c r="H3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="28" t="n">
         <v>1</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,13 +2027,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
@@ -1963,10 +2059,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -2064,8 +2160,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2539,8 +2635,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3765182186235"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3720,7 +3816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.5141700404858"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.19028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5833,8 +5929,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -7923,12 +8019,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8484,23 +8580,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B375" activeCellId="0" sqref="B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8524,7 +8620,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
@@ -8541,7 +8637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>127</v>
       </c>
@@ -8558,7 +8654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
@@ -8575,7 +8671,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>127</v>
       </c>
@@ -8592,7 +8688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>127</v>
       </c>
@@ -8609,7 +8705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>127</v>
       </c>
@@ -8626,7 +8722,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>127</v>
       </c>
@@ -8643,7 +8739,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
@@ -8660,7 +8756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>127</v>
       </c>
@@ -8677,7 +8773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>127</v>
       </c>
@@ -8728,7 +8824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>127</v>
       </c>
@@ -8745,7 +8841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>127</v>
       </c>
@@ -8762,7 +8858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
@@ -8779,7 +8875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>127</v>
       </c>
@@ -8796,7 +8892,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>127</v>
       </c>
@@ -8813,7 +8909,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>127</v>
       </c>
@@ -8830,7 +8926,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>127</v>
       </c>
@@ -8847,7 +8943,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>127</v>
       </c>
@@ -8864,7 +8960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>127</v>
       </c>
@@ -8881,7 +8977,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>127</v>
       </c>
@@ -8898,7 +8994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>127</v>
       </c>
@@ -8915,7 +9011,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>127</v>
       </c>
@@ -8932,7 +9028,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>127</v>
       </c>
@@ -8949,7 +9045,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>127</v>
       </c>
@@ -8966,7 +9062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>127</v>
       </c>
@@ -8983,7 +9079,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>127</v>
       </c>
@@ -9000,7 +9096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>127</v>
       </c>
@@ -9017,7 +9113,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>127</v>
       </c>
@@ -9034,7 +9130,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>127</v>
       </c>
@@ -9051,7 +9147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>127</v>
       </c>
@@ -9068,7 +9164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>127</v>
       </c>
@@ -9085,7 +9181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>127</v>
       </c>
@@ -9238,7 +9334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>127</v>
       </c>
@@ -9255,7 +9351,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
         <v>127</v>
       </c>
@@ -9272,7 +9368,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>127</v>
       </c>
@@ -9289,7 +9385,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>139</v>
       </c>
@@ -9306,7 +9402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
         <v>127</v>
       </c>
@@ -9323,7 +9419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>127</v>
       </c>
@@ -9340,7 +9436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>127</v>
       </c>
@@ -9357,7 +9453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>127</v>
       </c>
@@ -9374,7 +9470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -9391,7 +9487,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>127</v>
       </c>
@@ -9408,7 +9504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>139</v>
       </c>
@@ -9425,7 +9521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>139</v>
       </c>
@@ -9442,7 +9538,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>139</v>
       </c>
@@ -9459,7 +9555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>139</v>
       </c>
@@ -9476,7 +9572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>139</v>
       </c>
@@ -9493,7 +9589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>144</v>
       </c>
@@ -9510,7 +9606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>144</v>
       </c>
@@ -9527,7 +9623,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>144</v>
       </c>
@@ -9544,7 +9640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>144</v>
       </c>
@@ -9561,7 +9657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>144</v>
       </c>
@@ -9578,7 +9674,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
         <v>146</v>
       </c>
@@ -9595,7 +9691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
         <v>146</v>
       </c>
@@ -9612,7 +9708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
         <v>146</v>
       </c>
@@ -9629,7 +9725,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
         <v>146</v>
       </c>
@@ -9646,7 +9742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
         <v>146</v>
       </c>
@@ -9697,7 +9793,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
         <v>146</v>
       </c>
@@ -9714,7 +9810,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
         <v>146</v>
       </c>
@@ -9731,7 +9827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
         <v>146</v>
       </c>
@@ -9748,7 +9844,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
         <v>146</v>
       </c>
@@ -9765,7 +9861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
         <v>146</v>
       </c>
@@ -9782,7 +9878,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
         <v>146</v>
       </c>
@@ -9799,7 +9895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
@@ -9816,7 +9912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>146</v>
       </c>
@@ -9833,7 +9929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>146</v>
       </c>
@@ -9850,7 +9946,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
         <v>146</v>
       </c>
@@ -9867,7 +9963,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
         <v>146</v>
       </c>
@@ -9884,7 +9980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
         <v>146</v>
       </c>
@@ -9901,7 +9997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
         <v>146</v>
       </c>
@@ -9918,7 +10014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>146</v>
       </c>
@@ -9935,7 +10031,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
         <v>146</v>
       </c>
@@ -9952,7 +10048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
         <v>146</v>
       </c>
@@ -9969,7 +10065,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>146</v>
       </c>
@@ -9986,7 +10082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>146</v>
       </c>
@@ -10003,7 +10099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>146</v>
       </c>
@@ -10020,7 +10116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>146</v>
       </c>
@@ -10037,7 +10133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>146</v>
       </c>
@@ -10054,7 +10150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>146</v>
       </c>
@@ -10207,7 +10303,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>146</v>
       </c>
@@ -10224,7 +10320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>146</v>
       </c>
@@ -10241,7 +10337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>146</v>
       </c>
@@ -10258,7 +10354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>139</v>
       </c>
@@ -10275,7 +10371,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>139</v>
       </c>
@@ -10292,7 +10388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>139</v>
       </c>
@@ -10309,7 +10405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>139</v>
       </c>
@@ -10326,7 +10422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>139</v>
       </c>
@@ -10343,7 +10439,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>139</v>
       </c>
@@ -10360,7 +10456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>139</v>
       </c>
@@ -10377,7 +10473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>139</v>
       </c>
@@ -10394,7 +10490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>139</v>
       </c>
@@ -10411,7 +10507,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>139</v>
       </c>
@@ -10428,7 +10524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>139</v>
       </c>
@@ -10445,7 +10541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>139</v>
       </c>
@@ -10462,7 +10558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>139</v>
       </c>
@@ -10479,7 +10575,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>139</v>
       </c>
@@ -10496,7 +10592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>139</v>
       </c>
@@ -10513,7 +10609,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>139</v>
       </c>
@@ -10530,7 +10626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>139</v>
       </c>
@@ -10547,7 +10643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>139</v>
       </c>
@@ -10564,7 +10660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>139</v>
       </c>
@@ -10581,7 +10677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>139</v>
       </c>
@@ -10598,7 +10694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>139</v>
       </c>
@@ -10615,7 +10711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>139</v>
       </c>
@@ -10632,7 +10728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>139</v>
       </c>
@@ -10649,7 +10745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>139</v>
       </c>
@@ -10666,7 +10762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>139</v>
       </c>
@@ -10683,7 +10779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>139</v>
       </c>
@@ -10700,7 +10796,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>139</v>
       </c>
@@ -10717,7 +10813,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>139</v>
       </c>
@@ -10734,7 +10830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>139</v>
       </c>
@@ -10751,7 +10847,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>139</v>
       </c>
@@ -10768,7 +10864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>144</v>
       </c>
@@ -10785,7 +10881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>144</v>
       </c>
@@ -10802,7 +10898,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>144</v>
       </c>
@@ -10819,7 +10915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>144</v>
       </c>
@@ -10836,7 +10932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>144</v>
       </c>
@@ -10853,7 +10949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>144</v>
       </c>
@@ -10870,7 +10966,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>144</v>
       </c>
@@ -10887,7 +10983,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>144</v>
       </c>
@@ -10904,7 +11000,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>144</v>
       </c>
@@ -10921,7 +11017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>144</v>
       </c>
@@ -10938,7 +11034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>144</v>
       </c>
@@ -10955,7 +11051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>144</v>
       </c>
@@ -10972,7 +11068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>144</v>
       </c>
@@ -10989,7 +11085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>144</v>
       </c>
@@ -11006,7 +11102,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11" t="s">
         <v>127</v>
       </c>
@@ -11023,7 +11119,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>144</v>
       </c>
@@ -11040,7 +11136,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="11" t="s">
         <v>127</v>
       </c>
@@ -11057,7 +11153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="11" t="s">
         <v>127</v>
       </c>
@@ -11074,7 +11170,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="11" t="s">
         <v>127</v>
       </c>
@@ -11091,7 +11187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="11" t="s">
         <v>127</v>
       </c>
@@ -11108,7 +11204,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>144</v>
       </c>
@@ -11125,7 +11221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="11" t="s">
         <v>127</v>
       </c>
@@ -11142,7 +11238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="11" t="s">
         <v>127</v>
       </c>
@@ -11159,7 +11255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="11" t="s">
         <v>127</v>
       </c>
@@ -11176,7 +11272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11" t="s">
         <v>127</v>
       </c>
@@ -11193,7 +11289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="11" t="s">
         <v>127</v>
       </c>
@@ -11210,7 +11306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="11" t="s">
         <v>127</v>
       </c>
@@ -11227,7 +11323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="11" t="s">
         <v>127</v>
       </c>
@@ -11244,7 +11340,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="11" t="s">
         <v>127</v>
       </c>
@@ -11261,7 +11357,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11" t="s">
         <v>127</v>
       </c>
@@ -11278,7 +11374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11" t="s">
         <v>127</v>
       </c>
@@ -11295,7 +11391,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11" t="s">
         <v>127</v>
       </c>
@@ -11312,7 +11408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="s">
         <v>146</v>
       </c>
@@ -11329,7 +11425,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="11" t="s">
         <v>146</v>
       </c>
@@ -11346,7 +11442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11" t="s">
         <v>146</v>
       </c>
@@ -11363,7 +11459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="11" t="s">
         <v>146</v>
       </c>
@@ -11380,7 +11476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="11" t="s">
         <v>146</v>
       </c>
@@ -11397,7 +11493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>139</v>
       </c>
@@ -11414,7 +11510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>139</v>
       </c>
@@ -11431,7 +11527,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>139</v>
       </c>
@@ -11448,7 +11544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>139</v>
       </c>
@@ -11465,7 +11561,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>139</v>
       </c>
@@ -11482,7 +11578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>144</v>
       </c>
@@ -11499,7 +11595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>144</v>
       </c>
@@ -11516,7 +11612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>144</v>
       </c>
@@ -11533,7 +11629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>144</v>
       </c>
@@ -11550,7 +11646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>144</v>
       </c>
@@ -11771,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>139</v>
       </c>
@@ -11788,7 +11884,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>139</v>
       </c>
@@ -11805,7 +11901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>144</v>
       </c>
@@ -11822,7 +11918,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>144</v>
       </c>
@@ -11839,7 +11935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>144</v>
       </c>
@@ -11856,7 +11952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>144</v>
       </c>
@@ -11873,7 +11969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>139</v>
       </c>
@@ -11890,7 +11986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>139</v>
       </c>
@@ -11907,7 +12003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>139</v>
       </c>
@@ -11924,7 +12020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>139</v>
       </c>
@@ -11941,7 +12037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>139</v>
       </c>
@@ -11958,7 +12054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>139</v>
       </c>
@@ -11975,7 +12071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="11" t="s">
         <v>146</v>
       </c>
@@ -11992,7 +12088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11" t="s">
         <v>146</v>
       </c>
@@ -12009,7 +12105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="11" t="s">
         <v>146</v>
       </c>
@@ -12026,7 +12122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="11" t="s">
         <v>146</v>
       </c>
@@ -12043,7 +12139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="11" t="s">
         <v>146</v>
       </c>
@@ -12060,7 +12156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="11" t="s">
         <v>146</v>
       </c>
@@ -12077,7 +12173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>139</v>
       </c>
@@ -12094,7 +12190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>139</v>
       </c>
@@ -12111,7 +12207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>144</v>
       </c>
@@ -12128,7 +12224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>144</v>
       </c>
@@ -12145,7 +12241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>144</v>
       </c>
@@ -12162,7 +12258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>144</v>
       </c>
@@ -12179,7 +12275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>144</v>
       </c>
@@ -12196,7 +12292,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>144</v>
       </c>
@@ -12213,7 +12309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>144</v>
       </c>
@@ -12230,7 +12326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>144</v>
       </c>
@@ -12247,7 +12343,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>144</v>
       </c>
@@ -12264,7 +12360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>144</v>
       </c>
@@ -12281,7 +12377,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>144</v>
       </c>
@@ -12298,7 +12394,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>144</v>
       </c>
@@ -12315,7 +12411,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="11" t="s">
         <v>127</v>
       </c>
@@ -12332,7 +12428,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="11" t="s">
         <v>146</v>
       </c>
@@ -12349,7 +12445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>144</v>
       </c>
@@ -12366,7 +12462,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>144</v>
       </c>
@@ -12383,7 +12479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>144</v>
       </c>
@@ -12400,7 +12496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>144</v>
       </c>
@@ -12417,7 +12513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>144</v>
       </c>
@@ -12434,7 +12530,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>144</v>
       </c>
@@ -12451,7 +12547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>144</v>
       </c>
@@ -12468,7 +12564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>144</v>
       </c>
@@ -12485,7 +12581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>144</v>
       </c>
@@ -12502,7 +12598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>144</v>
       </c>
@@ -12519,7 +12615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>144</v>
       </c>
@@ -12536,7 +12632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>144</v>
       </c>
@@ -12553,7 +12649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>144</v>
       </c>
@@ -12570,7 +12666,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>144</v>
       </c>
@@ -12587,7 +12683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>144</v>
       </c>
@@ -12604,7 +12700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>144</v>
       </c>
@@ -12621,7 +12717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>144</v>
       </c>
@@ -12638,7 +12734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>144</v>
       </c>
@@ -12655,7 +12751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>144</v>
       </c>
@@ -12672,7 +12768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>144</v>
       </c>
@@ -12689,7 +12785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>144</v>
       </c>
@@ -12706,7 +12802,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>144</v>
       </c>
@@ -12723,7 +12819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>144</v>
       </c>
@@ -12740,7 +12836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>144</v>
       </c>
@@ -12757,7 +12853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>144</v>
       </c>
@@ -12774,7 +12870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>144</v>
       </c>
@@ -12791,7 +12887,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>144</v>
       </c>
@@ -12808,7 +12904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>144</v>
       </c>
@@ -12825,7 +12921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>144</v>
       </c>
@@ -12842,7 +12938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>144</v>
       </c>
@@ -12859,7 +12955,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>144</v>
       </c>
@@ -12876,7 +12972,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>144</v>
       </c>
@@ -12893,7 +12989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>144</v>
       </c>
@@ -12910,7 +13006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>144</v>
       </c>
@@ -12927,7 +13023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>144</v>
       </c>
@@ -12944,7 +13040,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>144</v>
       </c>
@@ -12961,7 +13057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>144</v>
       </c>
@@ -12978,7 +13074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>144</v>
       </c>
@@ -12995,7 +13091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>144</v>
       </c>
@@ -13012,7 +13108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>144</v>
       </c>
@@ -13029,7 +13125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>144</v>
       </c>
@@ -13046,7 +13142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>144</v>
       </c>
@@ -13063,7 +13159,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>144</v>
       </c>
@@ -13080,7 +13176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>144</v>
       </c>
@@ -13097,7 +13193,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>144</v>
       </c>
@@ -13114,7 +13210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>144</v>
       </c>
@@ -13131,7 +13227,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>144</v>
       </c>
@@ -13148,7 +13244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>144</v>
       </c>
@@ -13165,7 +13261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="275" s="20" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="20" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="20" t="s">
         <v>144</v>
       </c>
@@ -13182,7 +13278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>144</v>
       </c>
@@ -13199,7 +13295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>144</v>
       </c>
@@ -13216,7 +13312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>144</v>
       </c>
@@ -13233,7 +13329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>144</v>
       </c>
@@ -13250,7 +13346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>144</v>
       </c>
@@ -13267,7 +13363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>144</v>
       </c>
@@ -13284,7 +13380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>144</v>
       </c>
@@ -13301,7 +13397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>144</v>
       </c>
@@ -13318,7 +13414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>144</v>
       </c>
@@ -13335,7 +13431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>144</v>
       </c>
@@ -13352,7 +13448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>144</v>
       </c>
@@ -13369,7 +13465,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>144</v>
       </c>
@@ -13386,7 +13482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>144</v>
       </c>
@@ -13403,7 +13499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>144</v>
       </c>
@@ -13420,7 +13516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>144</v>
       </c>
@@ -13437,7 +13533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>144</v>
       </c>
@@ -13454,7 +13550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>144</v>
       </c>
@@ -13471,7 +13567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="293" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="11" t="s">
         <v>144</v>
       </c>
@@ -13488,7 +13584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="11" t="s">
         <v>144</v>
       </c>
@@ -13505,7 +13601,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="11" t="s">
         <v>144</v>
       </c>
@@ -13522,7 +13618,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="11" t="s">
         <v>144</v>
       </c>
@@ -13539,7 +13635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="11" t="s">
         <v>144</v>
       </c>
@@ -13556,7 +13652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="11" t="s">
         <v>144</v>
       </c>
@@ -13573,7 +13669,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="11" t="s">
         <v>144</v>
       </c>
@@ -13590,7 +13686,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="11" t="s">
         <v>144</v>
       </c>
@@ -13607,7 +13703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="11" t="s">
         <v>144</v>
       </c>
@@ -13624,7 +13720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="11" t="s">
         <v>144</v>
       </c>
@@ -13641,7 +13737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="11" t="s">
         <v>144</v>
       </c>
@@ -13658,7 +13754,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="11" t="s">
         <v>144</v>
       </c>
@@ -13675,7 +13771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="11" t="s">
         <v>144</v>
       </c>
@@ -13692,7 +13788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11" t="s">
         <v>144</v>
       </c>
@@ -13709,7 +13805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="11" t="s">
         <v>144</v>
       </c>
@@ -13726,7 +13822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="11" t="s">
         <v>144</v>
       </c>
@@ -13743,7 +13839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="11" t="s">
         <v>144</v>
       </c>
@@ -13760,7 +13856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="11" t="s">
         <v>144</v>
       </c>
@@ -13777,7 +13873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="11" t="s">
         <v>144</v>
       </c>
@@ -13794,7 +13890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="11" t="s">
         <v>144</v>
       </c>
@@ -13811,7 +13907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="11" t="s">
         <v>144</v>
       </c>
@@ -13828,7 +13924,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>144</v>
       </c>
@@ -13845,7 +13941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>144</v>
       </c>
@@ -13862,7 +13958,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>144</v>
       </c>
@@ -13879,7 +13975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>144</v>
       </c>
@@ -13896,7 +13992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>144</v>
       </c>
@@ -13913,7 +14009,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>144</v>
       </c>
@@ -13930,7 +14026,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>144</v>
       </c>
@@ -13947,7 +14043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>144</v>
       </c>
@@ -13964,7 +14060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>144</v>
       </c>
@@ -13981,7 +14077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>144</v>
       </c>
@@ -13998,7 +14094,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>144</v>
       </c>
@@ -14015,7 +14111,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>144</v>
       </c>
@@ -14032,7 +14128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>144</v>
       </c>
@@ -14049,7 +14145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>144</v>
       </c>
@@ -14066,7 +14162,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>144</v>
       </c>
@@ -14083,7 +14179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>144</v>
       </c>
@@ -14100,7 +14196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>144</v>
       </c>
@@ -14117,7 +14213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="331" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="20" t="s">
         <v>144</v>
       </c>
@@ -14134,7 +14230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>144</v>
       </c>
@@ -14151,7 +14247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>144</v>
       </c>
@@ -14168,7 +14264,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>144</v>
       </c>
@@ -14185,7 +14281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>144</v>
       </c>
@@ -14202,7 +14298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>144</v>
       </c>
@@ -14219,7 +14315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="337" s="20" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="20" t="s">
         <v>144</v>
       </c>
@@ -14236,7 +14332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="338" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="11" t="s">
         <v>144</v>
       </c>
@@ -14253,7 +14349,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="11" t="s">
         <v>144</v>
       </c>
@@ -14270,7 +14366,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="11" t="s">
         <v>144</v>
       </c>
@@ -14287,7 +14383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="11" t="s">
         <v>144</v>
       </c>
@@ -14304,7 +14400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>144</v>
       </c>
@@ -14321,7 +14417,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>144</v>
       </c>
@@ -14338,7 +14434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>144</v>
       </c>
@@ -14355,7 +14451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>144</v>
       </c>
@@ -14372,7 +14468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>144</v>
       </c>
@@ -14389,7 +14485,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>144</v>
       </c>
@@ -14406,7 +14502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>144</v>
       </c>
@@ -14423,7 +14519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>144</v>
       </c>
@@ -14440,7 +14536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>144</v>
       </c>
@@ -14457,7 +14553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>144</v>
       </c>
@@ -14474,7 +14570,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>144</v>
       </c>
@@ -14491,7 +14587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>144</v>
       </c>
@@ -14508,7 +14604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>144</v>
       </c>
@@ -14525,7 +14621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>144</v>
       </c>
@@ -14542,7 +14638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>144</v>
       </c>
@@ -14559,7 +14655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>144</v>
       </c>
@@ -14576,7 +14672,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="358" s="11" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="11" t="s">
         <v>144</v>
       </c>
@@ -14593,7 +14689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="11" t="s">
         <v>144</v>
       </c>
@@ -14610,7 +14706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="11" t="s">
         <v>144</v>
       </c>
@@ -14627,7 +14723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="11" t="s">
         <v>144</v>
       </c>
@@ -14644,7 +14740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>139</v>
       </c>
@@ -14661,7 +14757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="11" t="s">
         <v>146</v>
       </c>
@@ -14678,7 +14774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="11" t="s">
         <v>127</v>
       </c>
@@ -14695,7 +14791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="11" t="s">
         <v>144</v>
       </c>
@@ -14712,7 +14808,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="11" t="s">
         <v>144</v>
       </c>
@@ -14729,7 +14825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="11" t="s">
         <v>144</v>
       </c>
@@ -14746,7 +14842,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="11" t="s">
         <v>144</v>
       </c>
@@ -15375,7 +15471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="11" t="s">
         <v>127</v>
       </c>
@@ -15392,7 +15488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="11" t="s">
         <v>127</v>
       </c>
@@ -15409,7 +15505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="11" t="s">
         <v>146</v>
       </c>
@@ -15426,7 +15522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="11" t="s">
         <v>146</v>
       </c>
@@ -15443,7 +15539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>139</v>
       </c>
@@ -15460,7 +15556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>139</v>
       </c>
@@ -15477,7 +15573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>144</v>
       </c>
@@ -15494,7 +15590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>144</v>
       </c>
@@ -15511,7 +15607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>144</v>
       </c>
@@ -15528,7 +15624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>144</v>
       </c>
@@ -15545,7 +15641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>144</v>
       </c>
@@ -15562,7 +15658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>144</v>
       </c>
@@ -15579,7 +15675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="11" t="s">
         <v>127</v>
       </c>
@@ -15596,7 +15692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="11" t="s">
         <v>127</v>
       </c>
@@ -15613,7 +15709,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="11" t="s">
         <v>127</v>
       </c>
@@ -15630,7 +15726,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="11" t="s">
         <v>127</v>
       </c>
@@ -15647,7 +15743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="11" t="s">
         <v>127</v>
       </c>
@@ -15664,7 +15760,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="11" t="s">
         <v>127</v>
       </c>
@@ -15681,7 +15777,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="11" t="s">
         <v>146</v>
       </c>
@@ -15698,7 +15794,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="11" t="s">
         <v>146</v>
       </c>
@@ -15715,7 +15811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="11" t="s">
         <v>146</v>
       </c>
@@ -15732,7 +15828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="11" t="s">
         <v>146</v>
       </c>
@@ -15749,7 +15845,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="11" t="s">
         <v>146</v>
       </c>
@@ -15766,7 +15862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="11" t="s">
         <v>146</v>
       </c>
@@ -15783,7 +15879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>139</v>
       </c>
@@ -15800,7 +15896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>139</v>
       </c>
@@ -15817,7 +15913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>139</v>
       </c>
@@ -15834,7 +15930,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>139</v>
       </c>
@@ -15851,7 +15947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>139</v>
       </c>
@@ -15868,7 +15964,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>139</v>
       </c>
@@ -15885,7 +15981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="11" t="s">
         <v>146</v>
       </c>
@@ -15902,7 +15998,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>139</v>
       </c>
@@ -15919,7 +16015,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="11" t="s">
         <v>127</v>
       </c>
@@ -15936,7 +16032,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>144</v>
       </c>
@@ -15953,7 +16049,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>144</v>
       </c>
@@ -15970,7 +16066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>144</v>
       </c>
@@ -15989,13 +16085,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F440">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="anchor"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F440"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,6 +47,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -62,6 +65,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
@@ -94,17 +100,20 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -670,7 +679,7 @@
     <t>filter attribute 2</t>
   </si>
   <si>
-    <t>ECONOMY, PREMIUM, SUPER PREMIUM</t>
+    <t>ECONOMY, MID TIER, PREMIUM</t>
   </si>
   <si>
     <t>top, bottom</t>
@@ -1491,13 +1500,14 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,13 +1591,13 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.655870445344"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1626,7 +1636,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
         <v>152</v>
       </c>
@@ -1885,7 +1895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2160,8 +2170,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.4089068825911"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2635,8 +2645,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3816,7 +3826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.19028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.87044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5929,8 +5939,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -8019,12 +8029,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8592,10 +8602,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,6 +50,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -68,6 +69,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
@@ -103,17 +105,18 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -125,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="223">
   <si>
     <t>kpi Name</t>
   </si>
@@ -689,9 +692,6 @@
   </si>
   <si>
     <t>PADS</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>TAMPAX</t>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="G3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="G3 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,13 +1500,13 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="G3 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.5546558704454"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1591,13 +1591,13 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.619433198381"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1688,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>186</v>
@@ -1723,13 +1723,13 @@
         <v>39</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>26</v>
@@ -1758,13 +1758,13 @@
         <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>26</v>
@@ -1778,13 +1778,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,13 +1795,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="G3 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1890,12 +1890,12 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="G3 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1904,55 +1904,55 @@
         <v>16</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,37 +1963,37 @@
         <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -2010,14 +2010,14 @@
         <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="28"/>
       <c r="H3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N3" s="28" t="n">
         <v>1</v>
@@ -2037,13 +2037,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
@@ -2069,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G3 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2165,13 +2165,13 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="G3 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.4089068825911"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2640,13 +2640,13 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="1" sqref="G3 B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3821,12 +3821,12 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="G3 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.87044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5934,13 +5934,13 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+      <selection pane="topLeft" activeCell="H35" activeCellId="1" sqref="G3 H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -7036,7 +7036,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="G3 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7311,7 +7311,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="topLeft" activeCell="G37" activeCellId="1" sqref="G3 G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8024,17 +8024,17 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="G3 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8596,16 +8596,16 @@
   <dimension ref="A1:F441"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B375" activeCellId="0" sqref="B375"/>
+      <selection pane="topLeft" activeCell="B375" activeCellId="1" sqref="G3 B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -70,6 +71,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
@@ -106,17 +108,18 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -128,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="223">
   <si>
     <t>kpi Name</t>
   </si>
@@ -1194,7 +1197,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="G3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1289,7 +1292,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="G3 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1501,12 +1504,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="G3 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.5546558704454"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.1983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1591,13 +1594,13 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.582995951417"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1823,7 +1826,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="G3 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1890,12 +1893,12 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="G3 I3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2103,15 +2106,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G3 A18"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,6 +2148,30 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2165,13 +2193,13 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="G3 A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.2631578947368"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2640,13 +2668,13 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="1" sqref="G3 B64"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3821,12 +3849,12 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="G3 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5934,13 +5962,13 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="1" sqref="G3 H35"/>
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -7036,7 +7064,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="G3 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7311,7 +7339,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="1" sqref="G3 G37"/>
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8024,17 +8052,17 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="G3 A44"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8593,19 +8621,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B375" activeCellId="1" sqref="G3 B375"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E449" activeCellId="0" sqref="E449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -16093,7 +16121,57 @@
         <v>129</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D442" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D443" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F440"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$440</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$442</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
@@ -52,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -72,54 +73,56 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$358</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$358</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$211</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$440</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$434</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$416</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$404</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$368</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="wqe" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$210</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$367</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -604,40 +607,40 @@
     <t>Orchestration:Tampax_Orchest_2:FEM CARE</t>
   </si>
   <si>
+    <t>block and availability</t>
+  </si>
+  <si>
+    <t>Adjacency:One_Brush_Adj:ORAL CARE</t>
+  </si>
+  <si>
+    <t>Shelves:Num_of_Shleves:{category}</t>
+  </si>
+  <si>
+    <t>average shelf</t>
+  </si>
+  <si>
+    <t>Orchestration:Absorbency_Orchestration:FEM CARE</t>
+  </si>
+  <si>
+    <t>Orchestration:Absorbency_Orchestration:AI</t>
+  </si>
+  <si>
+    <t>Adjacency:Naturals Adjacency:FABRICARE:NATURALS=GREEN:BENEFIT=FREE/SENSITIVE</t>
+  </si>
+  <si>
+    <t>Orchestration:SUD_Horiz_Orches:FABRICARE:SEG=LAUNDRY CARE:FORM=LAUNDRY UNIT DOSE</t>
+  </si>
+  <si>
+    <t>sud_orchestration</t>
+  </si>
+  <si>
+    <t>Blocking:Regimen_Presence:FABRIC_CARE</t>
+  </si>
+  <si>
+    <t>fabricare_regimen</t>
+  </si>
+  <si>
     <t>Adjacency:Tide Simply Adjacency:FABRICARE</t>
-  </si>
-  <si>
-    <t>block and availability</t>
-  </si>
-  <si>
-    <t>Adjacency:One_Brush_Adj:ORAL CARE</t>
-  </si>
-  <si>
-    <t>Shelves:Num_of_Shleves:{category}</t>
-  </si>
-  <si>
-    <t>average shelf</t>
-  </si>
-  <si>
-    <t>Orchestration:Absorbency_Orchestration:FEM CARE</t>
-  </si>
-  <si>
-    <t>Orchestration:Absorbency_Orchestration:AI</t>
-  </si>
-  <si>
-    <t>Adjacency:Naturals Adjacency:FABRICARE:NATURALS=GREEN:BENEFIT=FREE/SENSITIVE</t>
-  </si>
-  <si>
-    <t>Orchestration:SUD_Horiz_Orches:FABRICARE:SEG=LAUNDRY CARE:FORM=LAUNDRY UNIT DOSE</t>
-  </si>
-  <si>
-    <t>sud_orchestration</t>
-  </si>
-  <si>
-    <t>Blocking:Regimen_Presence:FABRIC_CARE</t>
-  </si>
-  <si>
-    <t>fabricare_regimen</t>
   </si>
   <si>
     <t>brand_list</t>
@@ -1509,7 +1512,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1600,7 +1603,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.582995951417"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.546558704453"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>21</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>29</v>
@@ -1898,7 +1901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>22</v>
@@ -2034,7 +2037,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>26</v>
@@ -2063,7 +2066,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -2114,7 +2117,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.663967611336"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>31</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>32</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>33</v>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>30</v>
@@ -2160,7 +2163,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>29</v>
@@ -2198,8 +2201,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.0161943319838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.8704453441296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2673,8 +2676,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3854,7 +3857,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.692307692308"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.655870445344"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5967,8 +5970,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -8057,12 +8060,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8623,17 +8626,17 @@
   </sheetPr>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E449" activeCellId="0" sqref="E449"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -11243,20 +11246,20 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>144</v>
+      <c r="A154" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11267,7 @@
         <v>127</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>21</v>
@@ -11281,7 +11284,7 @@
         <v>127</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>21</v>
@@ -11298,7 +11301,7 @@
         <v>127</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>21</v>
@@ -11315,7 +11318,7 @@
         <v>127</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>21</v>
@@ -11332,7 +11335,7 @@
         <v>127</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>21</v>
@@ -11349,7 +11352,7 @@
         <v>127</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>21</v>
@@ -11357,8 +11360,8 @@
       <c r="D160" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E160" s="0" t="s">
-        <v>77</v>
+      <c r="E160" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11366,7 +11369,7 @@
         <v>127</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>21</v>
@@ -11383,7 +11386,7 @@
         <v>127</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>21</v>
@@ -11400,7 +11403,7 @@
         <v>127</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>21</v>
@@ -11417,7 +11420,7 @@
         <v>127</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>21</v>
@@ -11431,13 +11434,13 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>128</v>
@@ -11451,7 +11454,7 @@
         <v>146</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>29</v>
@@ -11468,7 +11471,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>29</v>
@@ -11485,7 +11488,7 @@
         <v>146</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>29</v>
@@ -11502,7 +11505,7 @@
         <v>146</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>29</v>
@@ -11515,17 +11518,17 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11" t="s">
-        <v>146</v>
+      <c r="A170" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>130</v>
@@ -11536,7 +11539,7 @@
         <v>139</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>30</v>
@@ -11553,7 +11556,7 @@
         <v>139</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>30</v>
@@ -11570,7 +11573,7 @@
         <v>139</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>30</v>
@@ -11587,7 +11590,7 @@
         <v>139</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>30</v>
@@ -11601,16 +11604,16 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>141</v>
+        <v>31</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>130</v>
@@ -11621,7 +11624,7 @@
         <v>144</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>31</v>
@@ -11638,7 +11641,7 @@
         <v>144</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>31</v>
@@ -11655,7 +11658,7 @@
         <v>144</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>31</v>
@@ -11672,7 +11675,7 @@
         <v>144</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>31</v>
@@ -11686,19 +11689,19 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11706,7 +11709,7 @@
         <v>139</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>30</v>
@@ -11723,7 +11726,7 @@
         <v>139</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>30</v>
@@ -11740,7 +11743,7 @@
         <v>139</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>30</v>
@@ -11757,7 +11760,7 @@
         <v>139</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>30</v>
@@ -11774,7 +11777,7 @@
         <v>139</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>30</v>
@@ -11791,7 +11794,7 @@
         <v>139</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>30</v>
@@ -11808,7 +11811,7 @@
         <v>139</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>30</v>
@@ -11825,7 +11828,7 @@
         <v>139</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>30</v>
@@ -11842,7 +11845,7 @@
         <v>139</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>30</v>
@@ -11859,7 +11862,7 @@
         <v>139</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>30</v>
@@ -11876,7 +11879,7 @@
         <v>139</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>30</v>
@@ -11893,7 +11896,7 @@
         <v>139</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>30</v>
@@ -11901,8 +11904,8 @@
       <c r="D192" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E192" s="0" t="s">
-        <v>131</v>
+      <c r="E192" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11910,7 +11913,7 @@
         <v>139</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>30</v>
@@ -11924,27 +11927,27 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>103</v>
+      <c r="B195" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>147</v>
@@ -11960,8 +11963,8 @@
       <c r="A196" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>104</v>
+      <c r="B196" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>147</v>
@@ -11978,7 +11981,7 @@
         <v>144</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>147</v>
@@ -11987,24 +11990,24 @@
         <v>145</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D198" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12012,7 +12015,7 @@
         <v>139</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>30</v>
@@ -12029,7 +12032,7 @@
         <v>139</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>30</v>
@@ -12046,7 +12049,7 @@
         <v>139</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>30</v>
@@ -12063,7 +12066,7 @@
         <v>139</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>30</v>
@@ -12080,7 +12083,7 @@
         <v>139</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>30</v>
@@ -12093,17 +12096,17 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>139</v>
+      <c r="A204" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>77</v>
@@ -12114,7 +12117,7 @@
         <v>146</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>29</v>
@@ -12131,7 +12134,7 @@
         <v>146</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>29</v>
@@ -12148,7 +12151,7 @@
         <v>146</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>29</v>
@@ -12165,7 +12168,7 @@
         <v>146</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>29</v>
@@ -12182,7 +12185,7 @@
         <v>146</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>29</v>
@@ -12195,20 +12198,20 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="11" t="s">
-        <v>146</v>
+      <c r="A210" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12216,7 +12219,7 @@
         <v>139</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>30</v>
@@ -12225,32 +12228,32 @@
         <v>141</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D212" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>151</v>
+        <v>31</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B213" s="0" t="s">
-        <v>103</v>
+      <c r="B213" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>31</v>
@@ -12266,8 +12269,8 @@
       <c r="A214" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>104</v>
+      <c r="B214" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>31</v>
@@ -12284,10 +12287,10 @@
         <v>144</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>31</v>
+        <v>103</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>145</v>
@@ -12300,8 +12303,8 @@
       <c r="A216" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B216" s="0" t="s">
-        <v>103</v>
+      <c r="B216" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>32</v>
@@ -12317,8 +12320,8 @@
       <c r="A217" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>104</v>
+      <c r="B217" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>32</v>
@@ -12335,10 +12338,10 @@
         <v>144</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>145</v>
@@ -12351,8 +12354,8 @@
       <c r="A219" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>103</v>
+      <c r="B219" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>33</v>
@@ -12368,8 +12371,8 @@
       <c r="A220" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>104</v>
+      <c r="B220" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>33</v>
@@ -12386,16 +12389,16 @@
         <v>144</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>33</v>
+        <v>159</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E221" s="11" t="s">
-        <v>138</v>
+      <c r="E221" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,16 +12406,16 @@
         <v>144</v>
       </c>
       <c r="B222" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E222" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D222" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12420,44 +12423,44 @@
         <v>144</v>
       </c>
       <c r="B223" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E223" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D223" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E223" s="0" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B224" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="C224" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>162</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>128</v>
@@ -12467,20 +12470,20 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>163</v>
+      <c r="A226" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>153</v>
+        <v>32</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,7 +12491,7 @@
         <v>144</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>32</v>
@@ -12505,7 +12508,7 @@
         <v>144</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>32</v>
@@ -12522,7 +12525,7 @@
         <v>144</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>32</v>
@@ -12534,12 +12537,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>32</v>
@@ -12551,15 +12554,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>145</v>
@@ -12573,7 +12576,7 @@
         <v>144</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>33</v>
@@ -12590,7 +12593,7 @@
         <v>144</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>33</v>
@@ -12607,7 +12610,7 @@
         <v>144</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>33</v>
@@ -12619,12 +12622,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>33</v>
@@ -12636,21 +12639,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12658,7 +12661,7 @@
         <v>144</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>32</v>
@@ -12675,7 +12678,7 @@
         <v>144</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>32</v>
@@ -12692,7 +12695,7 @@
         <v>144</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>32</v>
@@ -12709,7 +12712,7 @@
         <v>144</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>32</v>
@@ -12726,10 +12729,10 @@
         <v>144</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>145</v>
@@ -12743,7 +12746,7 @@
         <v>144</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>33</v>
@@ -12760,7 +12763,7 @@
         <v>144</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>33</v>
@@ -12777,7 +12780,7 @@
         <v>144</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>33</v>
@@ -12794,7 +12797,7 @@
         <v>144</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>33</v>
@@ -12811,10 +12814,10 @@
         <v>144</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>145</v>
@@ -12828,7 +12831,7 @@
         <v>144</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>32</v>
@@ -12845,7 +12848,7 @@
         <v>144</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>32</v>
@@ -12862,7 +12865,7 @@
         <v>144</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>32</v>
@@ -12879,7 +12882,7 @@
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>32</v>
@@ -12896,10 +12899,10 @@
         <v>144</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>145</v>
@@ -12913,7 +12916,7 @@
         <v>144</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>33</v>
@@ -12930,7 +12933,7 @@
         <v>144</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>33</v>
@@ -12947,7 +12950,7 @@
         <v>144</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>33</v>
@@ -12964,7 +12967,7 @@
         <v>144</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>33</v>
@@ -12981,16 +12984,16 @@
         <v>144</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>33</v>
+        <v>108</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E256" s="16" t="s">
-        <v>130</v>
+      <c r="E256" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12998,7 +13001,7 @@
         <v>144</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>31</v>
@@ -13015,7 +13018,7 @@
         <v>144</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>31</v>
@@ -13032,7 +13035,7 @@
         <v>144</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>31</v>
@@ -13049,7 +13052,7 @@
         <v>144</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>31</v>
@@ -13066,7 +13069,7 @@
         <v>144</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>31</v>
@@ -13083,10 +13086,10 @@
         <v>144</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>145</v>
@@ -13100,7 +13103,7 @@
         <v>144</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>32</v>
@@ -13117,7 +13120,7 @@
         <v>144</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>32</v>
@@ -13134,7 +13137,7 @@
         <v>144</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>32</v>
@@ -13151,7 +13154,7 @@
         <v>144</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>32</v>
@@ -13168,7 +13171,7 @@
         <v>144</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>32</v>
@@ -13185,10 +13188,10 @@
         <v>144</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>145</v>
@@ -13202,7 +13205,7 @@
         <v>144</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>33</v>
@@ -13219,7 +13222,7 @@
         <v>144</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>33</v>
@@ -13236,7 +13239,7 @@
         <v>144</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>33</v>
@@ -13253,7 +13256,7 @@
         <v>144</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>33</v>
@@ -13270,7 +13273,7 @@
         <v>144</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>33</v>
@@ -13282,34 +13285,34 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C274" s="0" t="s">
+    <row r="274" s="20" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C274" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D274" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="275" s="20" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B275" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C275" s="20" t="s">
+      <c r="D274" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D275" s="21" t="s">
+      <c r="D275" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E275" s="11" t="s">
@@ -13321,7 +13324,7 @@
         <v>144</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>33</v>
@@ -13338,7 +13341,7 @@
         <v>144</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>33</v>
@@ -13355,7 +13358,7 @@
         <v>144</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>33</v>
@@ -13372,7 +13375,7 @@
         <v>144</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>33</v>
@@ -13389,7 +13392,7 @@
         <v>144</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>33</v>
@@ -13406,7 +13409,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>33</v>
@@ -13423,7 +13426,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>33</v>
@@ -13440,7 +13443,7 @@
         <v>144</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>33</v>
@@ -13457,7 +13460,7 @@
         <v>144</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>33</v>
@@ -13474,7 +13477,7 @@
         <v>144</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>33</v>
@@ -13491,7 +13494,7 @@
         <v>144</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>33</v>
@@ -13503,12 +13506,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>33</v>
@@ -13516,8 +13519,8 @@
       <c r="D287" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E287" s="11" t="s">
-        <v>132</v>
+      <c r="E287" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13525,7 +13528,7 @@
         <v>144</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>33</v>
@@ -13542,7 +13545,7 @@
         <v>144</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>33</v>
@@ -13559,7 +13562,7 @@
         <v>144</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>33</v>
@@ -13576,7 +13579,7 @@
         <v>144</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>33</v>
@@ -13588,12 +13591,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>81</v>
+    <row r="292" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>33</v>
@@ -13601,25 +13604,25 @@
       <c r="D292" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E292" s="0" t="s">
+      <c r="E292" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="293" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13627,7 +13630,7 @@
         <v>144</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>32</v>
@@ -13644,7 +13647,7 @@
         <v>144</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>32</v>
@@ -13661,7 +13664,7 @@
         <v>144</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>32</v>
@@ -13678,7 +13681,7 @@
         <v>144</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>32</v>
@@ -13695,7 +13698,7 @@
         <v>144</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>32</v>
@@ -13712,7 +13715,7 @@
         <v>144</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>32</v>
@@ -13729,7 +13732,7 @@
         <v>144</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>32</v>
@@ -13746,7 +13749,7 @@
         <v>144</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>32</v>
@@ -13763,7 +13766,7 @@
         <v>144</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>32</v>
@@ -13780,7 +13783,7 @@
         <v>144</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>32</v>
@@ -13797,7 +13800,7 @@
         <v>144</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>32</v>
@@ -13814,7 +13817,7 @@
         <v>144</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>32</v>
@@ -13826,12 +13829,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>32</v>
@@ -13840,7 +13843,7 @@
         <v>145</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13851,7 @@
         <v>144</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>32</v>
@@ -13865,7 +13868,7 @@
         <v>144</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>32</v>
@@ -13882,7 +13885,7 @@
         <v>144</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>32</v>
@@ -13899,7 +13902,7 @@
         <v>144</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>32</v>
@@ -13916,7 +13919,7 @@
         <v>144</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>32</v>
@@ -13928,29 +13931,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>61</v>
+      <c r="A313" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>31</v>
@@ -13967,7 +13970,7 @@
         <v>144</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>31</v>
@@ -13984,7 +13987,7 @@
         <v>144</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>31</v>
@@ -14001,7 +14004,7 @@
         <v>144</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>31</v>
@@ -14018,7 +14021,7 @@
         <v>144</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>31</v>
@@ -14035,7 +14038,7 @@
         <v>144</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>31</v>
@@ -14052,7 +14055,7 @@
         <v>144</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>31</v>
@@ -14069,7 +14072,7 @@
         <v>144</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>31</v>
@@ -14086,7 +14089,7 @@
         <v>144</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>31</v>
@@ -14103,7 +14106,7 @@
         <v>144</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>31</v>
@@ -14120,7 +14123,7 @@
         <v>144</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>31</v>
@@ -14137,7 +14140,7 @@
         <v>144</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>31</v>
@@ -14149,12 +14152,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>31</v>
@@ -14162,8 +14165,8 @@
       <c r="D325" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E325" s="11" t="s">
-        <v>132</v>
+      <c r="E325" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14171,7 +14174,7 @@
         <v>144</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>31</v>
@@ -14188,7 +14191,7 @@
         <v>144</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>31</v>
@@ -14205,7 +14208,7 @@
         <v>144</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>31</v>
@@ -14222,7 +14225,7 @@
         <v>144</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>31</v>
@@ -14234,38 +14237,38 @@
         <v>77</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C330" s="11" t="s">
+    <row r="330" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B330" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C330" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D330" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E330" s="0" t="s">
+      <c r="D330" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E330" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="331" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B331" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C331" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D331" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>77</v>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D331" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,7 +14276,7 @@
         <v>144</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>32</v>
@@ -14290,10 +14293,10 @@
         <v>144</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D333" s="15" t="s">
         <v>145</v>
@@ -14307,7 +14310,7 @@
         <v>144</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>33</v>
@@ -14324,10 +14327,10 @@
         <v>144</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D335" s="15" t="s">
         <v>145</v>
@@ -14336,46 +14339,46 @@
         <v>136</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C336" s="11" t="s">
+    <row r="336" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C336" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D336" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E336" s="0" t="s">
+      <c r="D336" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E336" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="337" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B337" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C337" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D337" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E337" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="338" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>32</v>
@@ -14392,7 +14395,7 @@
         <v>144</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>32</v>
@@ -14409,7 +14412,7 @@
         <v>144</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>32</v>
@@ -14422,11 +14425,11 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="11" t="s">
+      <c r="A341" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>32</v>
@@ -14443,7 +14446,7 @@
         <v>144</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>32</v>
@@ -14460,7 +14463,7 @@
         <v>144</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>32</v>
@@ -14477,10 +14480,10 @@
         <v>144</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D344" s="15" t="s">
         <v>145</v>
@@ -14494,7 +14497,7 @@
         <v>144</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>33</v>
@@ -14511,7 +14514,7 @@
         <v>144</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>33</v>
@@ -14528,7 +14531,7 @@
         <v>144</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>33</v>
@@ -14545,7 +14548,7 @@
         <v>144</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>33</v>
@@ -14562,7 +14565,7 @@
         <v>144</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>33</v>
@@ -14579,7 +14582,7 @@
         <v>144</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>33</v>
@@ -14596,10 +14599,10 @@
         <v>144</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D351" s="15" t="s">
         <v>145</v>
@@ -14613,7 +14616,7 @@
         <v>144</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>31</v>
@@ -14630,7 +14633,7 @@
         <v>144</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>31</v>
@@ -14647,7 +14650,7 @@
         <v>144</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>31</v>
@@ -14664,7 +14667,7 @@
         <v>144</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>31</v>
@@ -14681,7 +14684,7 @@
         <v>144</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>31</v>
@@ -14693,12 +14696,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+    <row r="357" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>31</v>
@@ -14710,21 +14713,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="358" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B358" s="11" t="s">
-        <v>122</v>
+      <c r="B358" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D358" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E358" s="11" t="s">
-        <v>133</v>
+      <c r="E358" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14732,10 +14735,10 @@
         <v>144</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D359" s="15" t="s">
         <v>145</v>
@@ -14752,7 +14755,7 @@
         <v>88</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>145</v>
@@ -14762,34 +14765,34 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="11" t="s">
-        <v>144</v>
+      <c r="A361" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D361" s="15" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="E361" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>139</v>
+      <c r="A362" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E362" s="0" t="s">
         <v>77</v>
@@ -14797,13 +14800,13 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D363" s="11" t="s">
         <v>128</v>
@@ -14814,19 +14817,19 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="11" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D364" s="11" t="s">
-        <v>128</v>
+        <v>163</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D364" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14834,16 +14837,16 @@
         <v>144</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D365" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14851,7 +14854,7 @@
         <v>144</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>33</v>
@@ -14859,8 +14862,8 @@
       <c r="D366" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E366" s="0" t="s">
-        <v>130</v>
+      <c r="E366" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14868,33 +14871,33 @@
         <v>144</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>33</v>
+        <v>166</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D367" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="11" t="s">
+      <c r="A368" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D368" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E368" s="11" t="s">
-        <v>168</v>
+      <c r="E368" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14902,7 +14905,7 @@
         <v>144</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>31</v>
@@ -14919,7 +14922,7 @@
         <v>144</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>31</v>
@@ -14936,7 +14939,7 @@
         <v>144</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>31</v>
@@ -14953,7 +14956,7 @@
         <v>144</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>31</v>
@@ -14970,7 +14973,7 @@
         <v>144</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>31</v>
@@ -14987,7 +14990,7 @@
         <v>144</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>31</v>
@@ -15004,7 +15007,7 @@
         <v>144</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>31</v>
@@ -15021,7 +15024,7 @@
         <v>144</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>31</v>
@@ -15038,7 +15041,7 @@
         <v>144</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>31</v>
@@ -15055,7 +15058,7 @@
         <v>144</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>31</v>
@@ -15072,7 +15075,7 @@
         <v>144</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>31</v>
@@ -15089,10 +15092,10 @@
         <v>144</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C380" s="11" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D380" s="15" t="s">
         <v>145</v>
@@ -15106,7 +15109,7 @@
         <v>144</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>32</v>
@@ -15123,7 +15126,7 @@
         <v>144</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>32</v>
@@ -15140,7 +15143,7 @@
         <v>144</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>32</v>
@@ -15157,7 +15160,7 @@
         <v>144</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>32</v>
@@ -15174,7 +15177,7 @@
         <v>144</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>32</v>
@@ -15191,7 +15194,7 @@
         <v>144</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>32</v>
@@ -15208,7 +15211,7 @@
         <v>144</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>32</v>
@@ -15225,7 +15228,7 @@
         <v>144</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>32</v>
@@ -15242,7 +15245,7 @@
         <v>144</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>32</v>
@@ -15259,7 +15262,7 @@
         <v>144</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>32</v>
@@ -15276,7 +15279,7 @@
         <v>144</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>32</v>
@@ -15293,10 +15296,10 @@
         <v>144</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D392" s="15" t="s">
         <v>145</v>
@@ -15310,7 +15313,7 @@
         <v>144</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>33</v>
@@ -15327,7 +15330,7 @@
         <v>144</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>33</v>
@@ -15344,7 +15347,7 @@
         <v>144</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>33</v>
@@ -15361,7 +15364,7 @@
         <v>144</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>33</v>
@@ -15378,7 +15381,7 @@
         <v>144</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>33</v>
@@ -15395,7 +15398,7 @@
         <v>144</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>33</v>
@@ -15412,7 +15415,7 @@
         <v>144</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>33</v>
@@ -15429,7 +15432,7 @@
         <v>144</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>33</v>
@@ -15446,7 +15449,7 @@
         <v>144</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>33</v>
@@ -15463,7 +15466,7 @@
         <v>144</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>33</v>
@@ -15480,7 +15483,7 @@
         <v>144</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>33</v>
@@ -15492,21 +15495,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
-        <v>144</v>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D404" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E404" s="0" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E404" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15514,7 +15517,7 @@
         <v>127</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C405" s="11" t="s">
         <v>21</v>
@@ -15528,13 +15531,13 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D406" s="11" t="s">
         <v>128</v>
@@ -15548,7 +15551,7 @@
         <v>146</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>29</v>
@@ -15561,17 +15564,17 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="11" t="s">
-        <v>146</v>
+      <c r="A408" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E408" s="16" t="s">
         <v>130</v>
@@ -15582,7 +15585,7 @@
         <v>139</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>30</v>
@@ -15594,18 +15597,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D410" s="11" t="s">
-        <v>141</v>
+        <v>31</v>
+      </c>
+      <c r="D410" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E410" s="16" t="s">
         <v>130</v>
@@ -15616,7 +15619,7 @@
         <v>144</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C411" s="11" t="s">
         <v>31</v>
@@ -15633,10 +15636,10 @@
         <v>144</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C412" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D412" s="15" t="s">
         <v>145</v>
@@ -15650,7 +15653,7 @@
         <v>144</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>32</v>
@@ -15667,10 +15670,10 @@
         <v>144</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D414" s="15" t="s">
         <v>145</v>
@@ -15684,7 +15687,7 @@
         <v>144</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>33</v>
@@ -15696,21 +15699,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>144</v>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C416" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D416" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E416" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15718,7 +15721,7 @@
         <v>127</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C417" s="11" t="s">
         <v>21</v>
@@ -15735,7 +15738,7 @@
         <v>127</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C418" s="11" t="s">
         <v>21</v>
@@ -15752,7 +15755,7 @@
         <v>127</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>21</v>
@@ -15769,7 +15772,7 @@
         <v>127</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C420" s="11" t="s">
         <v>21</v>
@@ -15786,7 +15789,7 @@
         <v>127</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>21</v>
@@ -15800,13 +15803,13 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>128</v>
@@ -15820,7 +15823,7 @@
         <v>146</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C423" s="11" t="s">
         <v>29</v>
@@ -15837,7 +15840,7 @@
         <v>146</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C424" s="11" t="s">
         <v>29</v>
@@ -15854,7 +15857,7 @@
         <v>146</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C425" s="11" t="s">
         <v>29</v>
@@ -15871,7 +15874,7 @@
         <v>146</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C426" s="11" t="s">
         <v>29</v>
@@ -15888,7 +15891,7 @@
         <v>146</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C427" s="11" t="s">
         <v>29</v>
@@ -15901,17 +15904,17 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="11" t="s">
-        <v>146</v>
+      <c r="A428" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E428" s="11" t="s">
         <v>132</v>
@@ -15922,7 +15925,7 @@
         <v>139</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>30</v>
@@ -15939,7 +15942,7 @@
         <v>139</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C430" s="11" t="s">
         <v>30</v>
@@ -15956,7 +15959,7 @@
         <v>139</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C431" s="11" t="s">
         <v>30</v>
@@ -15973,7 +15976,7 @@
         <v>139</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>30</v>
@@ -15990,7 +15993,7 @@
         <v>139</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>30</v>
@@ -16003,68 +16006,68 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="A434" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C434" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D434" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E434" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C434" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D434" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E434" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E435" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>139</v>
+      <c r="A436" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E436" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="11" t="s">
-        <v>127</v>
+    <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="D437" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E437" s="16" t="s">
         <v>129</v>
@@ -16077,8 +16080,8 @@
       <c r="B438" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C438" s="11" t="s">
-        <v>31</v>
+      <c r="C438" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D438" s="15" t="s">
         <v>145</v>
@@ -16095,7 +16098,7 @@
         <v>34</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D439" s="15" t="s">
         <v>145</v>
@@ -16104,76 +16107,76 @@
         <v>129</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C440" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D440" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E440" s="16" t="s">
-        <v>129</v>
+        <v>159</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D440" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>139</v>
+      <c r="A441" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B441" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E441" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>21</v>
+        <v>159</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="D442" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="11" t="s">
-        <v>146</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C443" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>128</v>
+        <v>168</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D443" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F440"/>
+  <autoFilter ref="A1:F442"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$442</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$443</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'block new'!$A$1:$K$116</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
@@ -74,6 +75,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'anchor new'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="dfg" vbProcedure="false">main!$A$1:$F$193</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="qwe" vbProcedure="false">main!$A$1:$F$193</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="sdf" vbProcedure="false">main!$A$1:$F$210</definedName>
@@ -102,7 +104,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$193</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$442</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$439</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
@@ -112,17 +114,18 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$433</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$415</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$367</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$403</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$367</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1507,12 +1510,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1603,7 +1606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.546558704453"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.51012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1895,14 +1898,16 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1971,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>212</v>
@@ -1984,7 +1989,7 @@
         <v>215</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>212</v>
@@ -2035,18 +2040,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>219</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>220</v>
@@ -2117,7 +2122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.663967611336"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.2024291497976"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2201,8 +2206,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.8704453441296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2676,8 +2681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3857,7 +3862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.619433198381"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5970,8 +5975,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
@@ -8060,12 +8065,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8624,19 +8629,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F455"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A355" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A355" activeCellId="0" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -16175,8 +16180,9 @@
         <v>151</v>
       </c>
     </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F442"/>
+  <autoFilter ref="A1:F443"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
